--- a/开发文档文件夹/各种小BUG.xlsx
+++ b/开发文档文件夹/各种小BUG.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\UnityProject\TerraFlat\开发文档文件夹\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{30E329D6-636D-4AC0-8BE2-D841374CBBA2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CF297C88-2E1B-4680-B043-D6DB348EE63C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16896" xr2:uid="{B1C3257B-F98A-4619-B0C9-FFE03A007455}"/>
+    <workbookView minimized="1" xWindow="5760" yWindow="3396" windowWidth="23040" windowHeight="12204" xr2:uid="{B1C3257B-F98A-4619-B0C9-FFE03A007455}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="35">
   <si>
     <t>问题序号</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -160,6 +160,18 @@
   </si>
   <si>
     <t>用一个 GameObject（或一个 GameObject 树）代替 Scene 的“内容容器”</t>
+  </si>
+  <si>
+    <t>优化 房屋安装器类 为脚本</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>将 读取Excel列头名的脚本中的硬编码String 移动到一个静态类中</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>区分IDName 和GameName 一个是查询的识别码一个是用于语言表述的文字,GameName使用字典 Key为语言类型的名字 Value为对应的语言的物体名字</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -322,7 +334,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -344,13 +356,10 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="1" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="2">
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="58" fontId="3" fillId="2" borderId="0" xfId="2" applyNumberFormat="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="2" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -692,54 +701,59 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CF1C8C8E-C39C-417E-A20E-6E446109D209}">
-  <dimension ref="A1:F14"/>
+  <dimension ref="A1:F25"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A6" sqref="A6:XFD6"/>
+      <selection pane="bottomLeft" activeCell="B7" sqref="B7:D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="3" max="4" width="75.109375" customWidth="1"/>
-    <col min="5" max="5" width="13.77734375" customWidth="1"/>
-    <col min="6" max="6" width="6.33203125" customWidth="1"/>
+    <col min="2" max="2" width="6.33203125" customWidth="1"/>
+    <col min="3" max="3" width="10.6640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="63.6640625" style="8" customWidth="1"/>
+    <col min="5" max="5" width="75.109375" style="8" customWidth="1"/>
+    <col min="6" max="6" width="13.77734375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="19.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="4" t="s">
+      <c r="B1" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="C1" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="D1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="E1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="5" t="s">
+      <c r="F1" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="F1" s="6" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" s="7" customFormat="1" ht="14.4" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="7">
+    </row>
+    <row r="2" spans="1:6" ht="14.4" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A2">
         <v>1</v>
       </c>
-      <c r="B2" s="8">
-        <v>45796</v>
-      </c>
-      <c r="C2" s="7" t="s">
+      <c r="B2">
+        <v>20</v>
+      </c>
+      <c r="C2" s="1">
+        <v>45796</v>
+      </c>
+      <c r="D2" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="D2" s="7" t="s">
+      <c r="E2" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="E2" s="7" t="s">
+      <c r="F2" t="s">
         <v>8</v>
       </c>
     </row>
@@ -747,13 +761,13 @@
       <c r="A3">
         <v>2</v>
       </c>
-      <c r="B3" s="1">
-        <v>45796</v>
-      </c>
-      <c r="C3" t="s">
+      <c r="C3" s="1">
+        <v>45796</v>
+      </c>
+      <c r="D3" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="D3" t="s">
+      <c r="E3" s="8" t="s">
         <v>21</v>
       </c>
     </row>
@@ -761,13 +775,13 @@
       <c r="A4">
         <v>3</v>
       </c>
-      <c r="B4" s="1">
-        <v>45796</v>
-      </c>
-      <c r="C4" t="s">
+      <c r="C4" s="1">
+        <v>45796</v>
+      </c>
+      <c r="D4" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="D4" t="s">
+      <c r="E4" s="8" t="s">
         <v>18</v>
       </c>
     </row>
@@ -775,30 +789,33 @@
       <c r="A5">
         <v>4</v>
       </c>
-      <c r="B5" s="1">
-        <v>45796</v>
-      </c>
-      <c r="C5" t="s">
+      <c r="C5" s="1">
+        <v>45796</v>
+      </c>
+      <c r="D5" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="D5" t="s">
+      <c r="E5" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="E5" t="s">
+      <c r="F5" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="6" spans="1:6" s="7" customFormat="1" ht="27.6" x14ac:dyDescent="0.25">
-      <c r="A6" s="7">
+    <row r="6" spans="1:6" ht="27.6" x14ac:dyDescent="0.25">
+      <c r="A6">
         <v>5</v>
       </c>
-      <c r="B6" s="8">
-        <v>45796</v>
-      </c>
-      <c r="C6" s="7" t="s">
+      <c r="B6">
+        <v>20</v>
+      </c>
+      <c r="C6" s="1">
+        <v>45796</v>
+      </c>
+      <c r="D6" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="D6" s="9" t="s">
+      <c r="E6" s="8" t="s">
         <v>17</v>
       </c>
     </row>
@@ -806,13 +823,16 @@
       <c r="A7">
         <v>6</v>
       </c>
-      <c r="B7" s="1">
-        <v>45796</v>
-      </c>
-      <c r="C7" t="s">
+      <c r="B7">
+        <v>22</v>
+      </c>
+      <c r="C7" s="1">
+        <v>45796</v>
+      </c>
+      <c r="D7" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="D7" t="s">
+      <c r="E7" s="8" t="s">
         <v>16</v>
       </c>
     </row>
@@ -820,13 +840,16 @@
       <c r="A8">
         <v>7</v>
       </c>
-      <c r="B8" s="1">
-        <v>45796</v>
-      </c>
-      <c r="C8" t="s">
+      <c r="B8">
+        <v>22</v>
+      </c>
+      <c r="C8" s="1">
+        <v>45796</v>
+      </c>
+      <c r="D8" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="D8" t="s">
+      <c r="E8" s="8" t="s">
         <v>14</v>
       </c>
     </row>
@@ -834,13 +857,13 @@
       <c r="A9">
         <v>8</v>
       </c>
-      <c r="B9" s="1">
-        <v>45796</v>
-      </c>
-      <c r="C9" t="s">
+      <c r="C9" s="1">
+        <v>45796</v>
+      </c>
+      <c r="D9" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="D9" t="s">
+      <c r="E9" s="8" t="s">
         <v>23</v>
       </c>
     </row>
@@ -848,13 +871,13 @@
       <c r="A10">
         <v>9</v>
       </c>
-      <c r="B10" s="1">
-        <v>45796</v>
-      </c>
-      <c r="C10" t="s">
+      <c r="C10" s="1">
+        <v>45796</v>
+      </c>
+      <c r="D10" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="D10" t="s">
+      <c r="E10" s="8" t="s">
         <v>27</v>
       </c>
     </row>
@@ -862,41 +885,126 @@
       <c r="A11">
         <v>10</v>
       </c>
-      <c r="B11" s="1">
-        <v>45796</v>
-      </c>
-      <c r="C11" t="s">
+      <c r="C11" s="1">
+        <v>45796</v>
+      </c>
+      <c r="D11" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="D11" t="s">
+      <c r="E11" s="8" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B12" s="1">
-        <v>45796</v>
-      </c>
-      <c r="C12" t="s">
+      <c r="A12">
+        <v>11</v>
+      </c>
+      <c r="C12" s="1">
+        <v>45796</v>
+      </c>
+      <c r="D12" s="8" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B13" s="1">
-        <v>45796</v>
-      </c>
-      <c r="C13" t="s">
+      <c r="A13">
+        <v>12</v>
+      </c>
+      <c r="C13" s="1">
+        <v>45796</v>
+      </c>
+      <c r="D13" s="8" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B14" s="1">
+      <c r="A14">
+        <v>13</v>
+      </c>
+      <c r="C14" s="1">
         <v>45797</v>
       </c>
-      <c r="C14" t="s">
+      <c r="D14" s="8" t="s">
         <v>30</v>
       </c>
-      <c r="D14" t="s">
+      <c r="E14" s="8" t="s">
         <v>31</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <v>14</v>
+      </c>
+      <c r="C15" s="1">
+        <v>45799</v>
+      </c>
+      <c r="D15" s="8" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A16">
+        <v>15</v>
+      </c>
+      <c r="C16" s="1">
+        <v>45799</v>
+      </c>
+      <c r="D16" s="8" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" ht="41.4" x14ac:dyDescent="0.25">
+      <c r="A17">
+        <v>16</v>
+      </c>
+      <c r="C17" s="1">
+        <v>45799</v>
+      </c>
+      <c r="D17" s="8" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A18">
+        <v>17</v>
+      </c>
+      <c r="C18" s="7">
+        <v>45799</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A19">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A20">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A21">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A22">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A23">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A24">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A25">
+        <v>24</v>
       </c>
     </row>
   </sheetData>

--- a/开发文档文件夹/各种小BUG.xlsx
+++ b/开发文档文件夹/各种小BUG.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\UnityProject\TerraFlat\开发文档文件夹\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CF297C88-2E1B-4680-B043-D6DB348EE63C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2E4B8677-520D-4715-80B0-6852CA2BF5D8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView minimized="1" xWindow="5760" yWindow="3396" windowWidth="23040" windowHeight="12204" xr2:uid="{B1C3257B-F98A-4619-B0C9-FFE03A007455}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16896" xr2:uid="{B1C3257B-F98A-4619-B0C9-FFE03A007455}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="38">
   <si>
     <t>问题序号</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -50,10 +50,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>解决方案</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>使用 ADD函数添加物品不会导致快捷栏更新 然后实例化新的物品</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -62,17 +58,10 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>主要操作对象</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>已解决</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Inventory_HotBar</t>
-  </si>
-  <si>
     <t>斧头伤害越来越高</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -115,10 +104,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Inventory_Data</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>反转曲线</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -127,10 +112,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>AI对动画的控制问题没有解决</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>石镐子存在问题</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -171,6 +152,38 @@
   </si>
   <si>
     <t>区分IDName 和GameName 一个是查询的识别码一个是用于语言表述的文字,GameName使用字典 Key为语言类型的名字 Value为对应的语言的物体名字</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>思考的解决方案</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AI对动画的控制问题没有解决  在追击逃离的打断节点前添加对动画的重置</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>用于合成工具</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>统一引用方便后期的修改</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>思考关于开放世界的解决方案 加载可实现十分流畅了 现在的问题是2D寻路的问题 其烘焙生成所消耗的时间太久了 不进行烘焙的话又无法引导生物实体进行寻路 我使用的是Navigation组件</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>本地化问题</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.通过改版excel文件中的描述和名字实现本地化的切换 2.通过Unity Localization Package 实现显示界面的文字切换</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.是否可以? 将所有实体物体添加Obstacles组件 取消静态物体的寻路设计 2.Aron Granberg A* Pathfinding</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -178,7 +191,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="9" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -228,22 +241,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="等线"/>
-      <family val="2"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="8"/>
-      <color rgb="FF3F3F76"/>
-      <name val="等线"/>
-      <family val="2"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="10"/>
       <color theme="3"/>
@@ -253,7 +250,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="6">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -275,13 +272,8 @@
         <fgColor rgb="FFFFEB9C"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="3">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -298,23 +290,8 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
-  <cellStyleXfs count="6">
+  <cellStyleXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
@@ -330,11 +307,8 @@
     <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -350,26 +324,19 @@
     <xf numFmtId="0" fontId="5" fillId="4" borderId="0" xfId="4">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="2" xfId="5" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="1" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="1" applyFont="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
-  <cellStyles count="6">
+  <cellStyles count="5">
     <cellStyle name="标题 2" xfId="1" builtinId="17"/>
     <cellStyle name="差" xfId="3" builtinId="27"/>
     <cellStyle name="常规" xfId="0" builtinId="0"/>
     <cellStyle name="好" xfId="2" builtinId="26"/>
     <cellStyle name="适中" xfId="4" builtinId="28"/>
-    <cellStyle name="输入" xfId="5" builtinId="20"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -701,28 +668,28 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CF1C8C8E-C39C-417E-A20E-6E446109D209}">
-  <dimension ref="A1:F25"/>
+  <dimension ref="A1:E26"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B7" sqref="B7:D8"/>
+      <selection pane="bottomLeft" activeCell="F13" sqref="F13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="6.33203125" customWidth="1"/>
     <col min="3" max="3" width="10.6640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="63.6640625" style="8" customWidth="1"/>
-    <col min="5" max="5" width="75.109375" style="8" customWidth="1"/>
-    <col min="6" max="6" width="13.77734375" customWidth="1"/>
+    <col min="4" max="4" width="63.6640625" style="6" customWidth="1"/>
+    <col min="5" max="5" width="75.109375" style="6" customWidth="1"/>
+    <col min="6" max="6" width="28.77734375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="19.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" ht="19.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="6" t="s">
-        <v>7</v>
+      <c r="B1" s="5" t="s">
+        <v>5</v>
       </c>
       <c r="C1" s="4" t="s">
         <v>2</v>
@@ -731,13 +698,10 @@
         <v>1</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="F1" s="5" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" ht="14.4" thickTop="1" x14ac:dyDescent="0.25">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" ht="14.4" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
@@ -747,62 +711,56 @@
       <c r="C2" s="1">
         <v>45796</v>
       </c>
-      <c r="D2" s="8" t="s">
+      <c r="D2" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="E2" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="E2" s="8" t="s">
-        <v>5</v>
-      </c>
-      <c r="F2" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2</v>
       </c>
       <c r="C3" s="1">
         <v>45796</v>
       </c>
-      <c r="D3" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="E3" s="8" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="D3" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="E3" s="6" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>3</v>
       </c>
       <c r="C4" s="1">
         <v>45796</v>
       </c>
-      <c r="D4" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="E4" s="8" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="D4" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="E4" s="6" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>4</v>
       </c>
       <c r="C5" s="1">
         <v>45796</v>
       </c>
-      <c r="D5" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="E5" s="8" t="s">
-        <v>19</v>
-      </c>
-      <c r="F5" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" ht="27.6" x14ac:dyDescent="0.25">
+      <c r="D5" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="E5" s="6" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" ht="27.6" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>5</v>
       </c>
@@ -812,14 +770,14 @@
       <c r="C6" s="1">
         <v>45796</v>
       </c>
-      <c r="D6" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="E6" s="8" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="D6" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="E6" s="6" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>6</v>
       </c>
@@ -829,14 +787,14 @@
       <c r="C7" s="1">
         <v>45796</v>
       </c>
-      <c r="D7" s="8" t="s">
+      <c r="D7" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="E7" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="E7" s="8" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>7</v>
       </c>
@@ -846,166 +804,196 @@
       <c r="C8" s="1">
         <v>45796</v>
       </c>
-      <c r="D8" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="E8" s="8" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="D8" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="E8" s="6" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>8</v>
       </c>
       <c r="C9" s="1">
         <v>45796</v>
       </c>
-      <c r="D9" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="E9" s="8" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="D9" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="E9" s="6" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>9</v>
       </c>
       <c r="C10" s="1">
         <v>45796</v>
       </c>
-      <c r="D10" s="8" t="s">
-        <v>24</v>
-      </c>
-      <c r="E10" s="8" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="D10" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="E10" s="6" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>10</v>
       </c>
       <c r="C11" s="1">
         <v>45796</v>
       </c>
-      <c r="D11" s="8" t="s">
-        <v>25</v>
-      </c>
-      <c r="E11" s="8" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="D11" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="E11" s="6" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>11</v>
       </c>
       <c r="C12" s="1">
         <v>45796</v>
       </c>
-      <c r="D12" s="8" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="D12" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="E12" s="6" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>12</v>
       </c>
       <c r="C13" s="1">
         <v>45796</v>
       </c>
-      <c r="D13" s="8" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="D13" s="6" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>13</v>
       </c>
       <c r="C14" s="1">
         <v>45797</v>
       </c>
-      <c r="D14" s="8" t="s">
-        <v>30</v>
-      </c>
-      <c r="E14" s="8" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="D14" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="E14" s="6" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>14</v>
       </c>
       <c r="C15" s="1">
         <v>45799</v>
       </c>
-      <c r="D15" s="8" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="D15" s="6" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>15</v>
       </c>
       <c r="C16" s="1">
         <v>45799</v>
       </c>
-      <c r="D16" s="8" t="s">
+      <c r="D16" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="E16" s="6" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="17" spans="1:4" ht="41.4" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:5" ht="41.4" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>16</v>
       </c>
       <c r="C17" s="1">
         <v>45799</v>
       </c>
-      <c r="D17" s="8" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D17" s="6" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" ht="41.4" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>17</v>
       </c>
-      <c r="C18" s="7">
-        <v>45799</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C18" s="1">
+        <v>45803</v>
+      </c>
+      <c r="D18" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="E18" s="6" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" ht="27.6" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>18</v>
       </c>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C19" s="1">
+        <v>45803</v>
+      </c>
+      <c r="D19" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="E19" s="6" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>19</v>
       </c>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C20" s="1"/>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>20</v>
       </c>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C21" s="1"/>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>21</v>
       </c>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C22" s="1"/>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>22</v>
       </c>
-    </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C23" s="1"/>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>23</v>
       </c>
-    </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C24" s="1"/>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>24</v>
       </c>
+      <c r="C25" s="1"/>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="C26" s="1"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/开发文档文件夹/各种小BUG.xlsx
+++ b/开发文档文件夹/各种小BUG.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\UnityProject\TerraFlat\开发文档文件夹\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2E4B8677-520D-4715-80B0-6852CA2BF5D8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{082B4A8B-012D-4C1A-86F6-42733165C419}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16896" xr2:uid="{B1C3257B-F98A-4619-B0C9-FFE03A007455}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="42">
   <si>
     <t>问题序号</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -184,6 +184,22 @@
   </si>
   <si>
     <t>1.是否可以? 将所有实体物体添加Obstacles组件 取消静态物体的寻路设计 2.Aron Granberg A* Pathfinding</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>自动遍历存档SO 打开对应场景 调用读取函数</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>添加生物性状DLC</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>实现苹果树的繁殖循环</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>思考物品影子的解决方案</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -672,7 +688,7 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F13" sqref="F13"/>
+      <selection pane="bottomLeft" activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -722,6 +738,9 @@
       <c r="A3">
         <v>2</v>
       </c>
+      <c r="B3">
+        <v>28</v>
+      </c>
       <c r="C3" s="1">
         <v>45796</v>
       </c>
@@ -736,6 +755,9 @@
       <c r="A4">
         <v>3</v>
       </c>
+      <c r="B4">
+        <v>28</v>
+      </c>
       <c r="C4" s="1">
         <v>45796</v>
       </c>
@@ -907,6 +929,9 @@
       <c r="A16">
         <v>15</v>
       </c>
+      <c r="B16">
+        <v>28</v>
+      </c>
       <c r="C16" s="1">
         <v>45799</v>
       </c>
@@ -921,6 +946,9 @@
       <c r="A17">
         <v>16</v>
       </c>
+      <c r="B17">
+        <v>28</v>
+      </c>
       <c r="C17" s="1">
         <v>45799</v>
       </c>
@@ -960,25 +988,48 @@
       <c r="A20">
         <v>19</v>
       </c>
-      <c r="C20" s="1"/>
+      <c r="B20">
+        <v>28</v>
+      </c>
+      <c r="C20" s="1">
+        <v>45805</v>
+      </c>
+      <c r="D20" s="6" t="s">
+        <v>38</v>
+      </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>20</v>
       </c>
-      <c r="C21" s="1"/>
+      <c r="C21" s="1">
+        <v>45805</v>
+      </c>
+      <c r="D21" s="6" t="s">
+        <v>39</v>
+      </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>21</v>
       </c>
-      <c r="C22" s="1"/>
+      <c r="C22" s="1">
+        <v>45805</v>
+      </c>
+      <c r="D22" s="6" t="s">
+        <v>40</v>
+      </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>22</v>
       </c>
-      <c r="C23" s="1"/>
+      <c r="C23" s="1">
+        <v>45805</v>
+      </c>
+      <c r="D23" s="6" t="s">
+        <v>41</v>
+      </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A24">

--- a/开发文档文件夹/各种小BUG.xlsx
+++ b/开发文档文件夹/各种小BUG.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\UnityProject\TerraFlat\开发文档文件夹\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{082B4A8B-012D-4C1A-86F6-42733165C419}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{43EA50DA-27F0-4EC4-827E-FAB6C4E9081C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16896" xr2:uid="{B1C3257B-F98A-4619-B0C9-FFE03A007455}"/>
+    <workbookView xWindow="7680" yWindow="1740" windowWidth="23040" windowHeight="12204" xr2:uid="{B1C3257B-F98A-4619-B0C9-FFE03A007455}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="47">
   <si>
     <t>问题序号</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -200,6 +200,26 @@
   </si>
   <si>
     <t>思考物品影子的解决方案</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">思考关于TileMap修改的解决方案 TileMap需要附加数值 例如地块的肥力 水分 </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>思考实现野草的自然生长 也就是其光合作用</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>添加选择开始场景的功能</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>在SaveData中添加唯一识别码 表示其作为活动的Item的唯一表示 用于在SaveData中方便其他用户查找          在Res中创建一个新的字典 用于记录当前的活动对象 使用其Res分发的ID识别码可以快捷的从Res中查找到他</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>完成Buff Item类的制作 实现玩家进入水中移动减速的效果</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -324,7 +344,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -345,6 +365,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="5">
@@ -684,11 +707,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CF1C8C8E-C39C-417E-A20E-6E446109D209}">
-  <dimension ref="A1:E26"/>
+  <dimension ref="A1:E28"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D5" sqref="D5"/>
+      <pane ySplit="1" topLeftCell="A18" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E27" sqref="E27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -1031,20 +1054,51 @@
         <v>41</v>
       </c>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:5" ht="27.6" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>23</v>
       </c>
-      <c r="C24" s="1"/>
+      <c r="C24" s="1">
+        <v>45806</v>
+      </c>
+      <c r="D24" s="6" t="s">
+        <v>42</v>
+      </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>24</v>
       </c>
-      <c r="C25" s="1"/>
+      <c r="C25" s="1">
+        <v>45806</v>
+      </c>
+      <c r="D25" s="6" t="s">
+        <v>43</v>
+      </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="C26" s="1"/>
+      <c r="C26" s="1">
+        <v>45806</v>
+      </c>
+      <c r="D26" s="6" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" ht="41.4" x14ac:dyDescent="0.25">
+      <c r="C27" s="7">
+        <v>45806</v>
+      </c>
+      <c r="D27" s="6" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="C28" s="1">
+        <v>45806</v>
+      </c>
+      <c r="D28" s="6" t="s">
+        <v>46</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/开发文档文件夹/各种小BUG.xlsx
+++ b/开发文档文件夹/各种小BUG.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\UnityProject\TerraFlat\开发文档文件夹\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{43EA50DA-27F0-4EC4-827E-FAB6C4E9081C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0573610B-45E4-4998-A038-C1369B02C08C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="7680" yWindow="1740" windowWidth="23040" windowHeight="12204" xr2:uid="{B1C3257B-F98A-4619-B0C9-FFE03A007455}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16896" xr2:uid="{B1C3257B-F98A-4619-B0C9-FFE03A007455}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="49">
   <si>
     <t>问题序号</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -207,10 +207,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>思考实现野草的自然生长 也就是其光合作用</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>添加选择开始场景的功能</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -220,6 +216,18 @@
   </si>
   <si>
     <t>完成Buff Item类的制作 实现玩家进入水中移动减速的效果</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>思考实现野草(grass_3)的自然生长 也就是其光合作用</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>添加删除存档的功能</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>添加Buff系统</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -707,11 +715,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CF1C8C8E-C39C-417E-A20E-6E446109D209}">
-  <dimension ref="A1:E28"/>
+  <dimension ref="A1:E30"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A18" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E27" sqref="E27"/>
+      <selection pane="bottomLeft" activeCell="D31" sqref="D31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -1073,7 +1081,7 @@
         <v>45806</v>
       </c>
       <c r="D25" s="6" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.25">
@@ -1081,7 +1089,7 @@
         <v>45806</v>
       </c>
       <c r="D26" s="6" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="27" spans="1:5" ht="41.4" x14ac:dyDescent="0.25">
@@ -1089,7 +1097,7 @@
         <v>45806</v>
       </c>
       <c r="D27" s="6" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.25">
@@ -1097,7 +1105,23 @@
         <v>45806</v>
       </c>
       <c r="D28" s="6" t="s">
-        <v>46</v>
+        <v>45</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="C29" s="1">
+        <v>45807</v>
+      </c>
+      <c r="D29" s="6" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="C30" s="1">
+        <v>45807</v>
+      </c>
+      <c r="D30" s="6" t="s">
+        <v>48</v>
       </c>
     </row>
   </sheetData>

--- a/开发文档文件夹/各种小BUG.xlsx
+++ b/开发文档文件夹/各种小BUG.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\UnityProject\TerraFlat\开发文档文件夹\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0573610B-45E4-4998-A038-C1369B02C08C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{170C5E39-CD7A-4A4C-97BD-7ACD88141886}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16896" xr2:uid="{B1C3257B-F98A-4619-B0C9-FFE03A007455}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="52">
   <si>
     <t>问题序号</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -228,6 +228,18 @@
   </si>
   <si>
     <t>添加Buff系统</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>将玩家的父对象消除 重点是如何管理镜头问题</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">思考如何解决各种Buff的叠加问题 </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>完成实例 玩家的移动速度和水体减速发生冲突</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -715,11 +727,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CF1C8C8E-C39C-417E-A20E-6E446109D209}">
-  <dimension ref="A1:E30"/>
+  <dimension ref="A1:E170"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A18" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D31" sqref="D31"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -1085,6 +1097,9 @@
       </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A26">
+        <v>25</v>
+      </c>
       <c r="C26" s="1">
         <v>45806</v>
       </c>
@@ -1093,6 +1108,9 @@
       </c>
     </row>
     <row r="27" spans="1:5" ht="41.4" x14ac:dyDescent="0.25">
+      <c r="A27">
+        <v>26</v>
+      </c>
       <c r="C27" s="7">
         <v>45806</v>
       </c>
@@ -1101,6 +1119,12 @@
       </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A28">
+        <v>27</v>
+      </c>
+      <c r="B28">
+        <v>31</v>
+      </c>
       <c r="C28" s="1">
         <v>45806</v>
       </c>
@@ -1109,6 +1133,9 @@
       </c>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A29">
+        <v>28</v>
+      </c>
       <c r="C29" s="1">
         <v>45807</v>
       </c>
@@ -1117,11 +1144,729 @@
       </c>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A30">
+        <v>29</v>
+      </c>
       <c r="C30" s="1">
         <v>45807</v>
       </c>
       <c r="D30" s="6" t="s">
         <v>48</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A31">
+        <v>30</v>
+      </c>
+      <c r="C31" s="1">
+        <v>45808</v>
+      </c>
+      <c r="D31" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="E31" s="6" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A32">
+        <v>31</v>
+      </c>
+      <c r="C32" s="1">
+        <v>45808</v>
+      </c>
+      <c r="D32" s="6" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="33" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A33">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="34" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A34">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="35" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A35">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="36" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A36">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="37" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A37">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="38" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A38">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="39" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A39">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="40" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A40">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="41" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A41">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="42" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A42">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="43" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A43">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="44" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A44">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="45" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A45">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="46" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A46">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="47" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A47">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="48" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A48">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="49" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A49">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="50" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A50">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="51" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A51">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="52" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A52">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="53" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A53">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="54" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A54">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="55" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A55">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="56" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A56">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="57" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A57">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="58" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A58">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="59" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A59">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="60" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A60">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="61" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A61">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="62" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A62">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="63" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A63">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="64" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A64">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="65" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A65">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="66" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A66">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="67" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A67">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="68" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A68">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="69" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A69">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="70" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A70">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="71" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A71">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="72" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A72">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="73" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A73">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="74" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A74">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="75" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A75">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="76" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A76">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="77" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A77">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="78" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A78">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="79" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A79">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="80" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A80">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="81" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A81">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="82" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A82">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="83" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A83">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="84" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A84">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="85" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A85">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="86" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A86">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="87" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A87">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="88" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A88">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="89" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A89">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="90" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A90">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="91" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A91">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="92" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A92">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="93" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A93">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="94" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A94">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="95" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A95">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="96" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A96">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="97" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A97">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="98" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A98">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="99" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A99">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="100" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A100">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="101" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A101">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="102" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A102">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="103" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A103">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="104" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A104">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="105" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A105">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="106" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A106">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="107" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A107">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="108" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A108">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="109" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A109">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="110" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A110">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="111" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A111">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="112" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A112">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="113" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A113">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="114" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A114">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="115" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A115">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="116" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A116">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="117" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A117">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="118" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A118">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="119" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A119">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="120" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A120">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="121" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A121">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="122" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A122">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="123" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A123">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="124" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A124">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="125" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A125">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="126" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A126">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="127" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A127">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="128" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A128">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="129" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A129">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="130" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A130">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="131" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A131">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="132" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A132">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="133" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A133">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="134" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A134">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="135" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A135">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="136" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A136">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="137" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A137">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="138" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A138">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="139" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A139">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="140" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A140">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="141" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A141">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="142" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A142">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="143" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A143">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="144" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A144">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="145" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A145">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="146" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A146">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="147" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A147">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="148" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A148">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="149" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A149">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="150" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A150">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="151" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A151">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="152" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A152">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="153" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A153">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="154" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A154">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="155" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A155">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="156" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A156">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="157" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A157">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="158" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A158">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="159" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A159">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="160" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A160">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="161" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A161">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="162" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A162">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="163" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A163">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="164" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A164">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="165" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A165">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="166" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A166">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="167" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A167">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="168" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A168">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="169" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A169">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="170" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A170">
+        <v>169</v>
       </c>
     </row>
   </sheetData>

--- a/开发文档文件夹/各种小BUG.xlsx
+++ b/开发文档文件夹/各种小BUG.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\UnityProject\TerraFlat\开发文档文件夹\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{170C5E39-CD7A-4A4C-97BD-7ACD88141886}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1EF27240-EEA3-4F47-A80C-9E91FF4468D9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16896" xr2:uid="{B1C3257B-F98A-4619-B0C9-FFE03A007455}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="54">
   <si>
     <t>问题序号</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -240,6 +240,14 @@
   </si>
   <si>
     <t>完成实例 玩家的移动速度和水体减速发生冲突</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>使Buff系统的SO行为配置文件有更好的书写方式</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>实例:完成水体减速</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -731,7 +739,7 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E14" sqref="E14"/>
+      <selection pane="bottomLeft" activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -1147,6 +1155,9 @@
       <c r="A30">
         <v>29</v>
       </c>
+      <c r="B30">
+        <v>31</v>
+      </c>
       <c r="C30" s="1">
         <v>45807</v>
       </c>
@@ -1179,82 +1190,91 @@
         <v>49</v>
       </c>
     </row>
-    <row r="33" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A33">
         <v>32</v>
       </c>
-    </row>
-    <row r="34" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="C33" s="1">
+        <v>45808</v>
+      </c>
+      <c r="D33" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="E33" s="6" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A34">
         <v>33</v>
       </c>
     </row>
-    <row r="35" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A35">
         <v>34</v>
       </c>
     </row>
-    <row r="36" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A36">
         <v>35</v>
       </c>
     </row>
-    <row r="37" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A37">
         <v>36</v>
       </c>
     </row>
-    <row r="38" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A38">
         <v>37</v>
       </c>
     </row>
-    <row r="39" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A39">
         <v>38</v>
       </c>
     </row>
-    <row r="40" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A40">
         <v>39</v>
       </c>
     </row>
-    <row r="41" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A41">
         <v>40</v>
       </c>
     </row>
-    <row r="42" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A42">
         <v>41</v>
       </c>
     </row>
-    <row r="43" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A43">
         <v>42</v>
       </c>
     </row>
-    <row r="44" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A44">
         <v>43</v>
       </c>
     </row>
-    <row r="45" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A45">
         <v>44</v>
       </c>
     </row>
-    <row r="46" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A46">
         <v>45</v>
       </c>
     </row>
-    <row r="47" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A47">
         <v>46</v>
       </c>
     </row>
-    <row r="48" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A48">
         <v>47</v>
       </c>

--- a/开发文档文件夹/各种小BUG.xlsx
+++ b/开发文档文件夹/各种小BUG.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28730"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28827"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\UnityProject\TerraFlat\开发文档文件夹\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1EF27240-EEA3-4F47-A80C-9E91FF4468D9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{239FC8FD-1FB9-4C51-B365-82BDD459BA43}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16896" xr2:uid="{B1C3257B-F98A-4619-B0C9-FFE03A007455}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="56">
   <si>
     <t>问题序号</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -248,6 +248,14 @@
   </si>
   <si>
     <t>实例:完成水体减速</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>6月4号</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>优化Player结构</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -738,8 +746,8 @@
   <dimension ref="A1:E170"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E9" sqref="E9"/>
+      <pane ySplit="1" topLeftCell="A24" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D38" sqref="D38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -1208,6 +1216,12 @@
       <c r="A34">
         <v>33</v>
       </c>
+      <c r="C34" t="s">
+        <v>54</v>
+      </c>
+      <c r="D34" s="6" t="s">
+        <v>55</v>
+      </c>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A35">

--- a/开发文档文件夹/各种小BUG.xlsx
+++ b/开发文档文件夹/各种小BUG.xlsx
@@ -2,15 +2,15 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28827"/>
-  <workbookPr defaultThemeVersion="202300"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\UnityProject\TerraFlat\开发文档文件夹\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\_Unity\_UnityProject\FlatWorld\开发文档文件夹\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{239FC8FD-1FB9-4C51-B365-82BDD459BA43}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8A264B85-234D-44DE-BEB4-44BEB4DC6D5B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16896" xr2:uid="{B1C3257B-F98A-4619-B0C9-FFE03A007455}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{B1C3257B-F98A-4619-B0C9-FFE03A007455}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -27,8 +27,6 @@
         <xcalcf:feature name="microsoft.com:FV"/>
         <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -36,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="60">
   <si>
     <t>问题序号</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -256,6 +254,22 @@
   </si>
   <si>
     <t>优化Player结构</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>6月6号</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>优化切换场景后无法从运行字典中获取TileMap对象</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0606</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>将精力系统转换为Buff系统进行控制</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -380,7 +394,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -396,14 +410,17 @@
     <xf numFmtId="0" fontId="5" fillId="4" borderId="0" xfId="4">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="1" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="5">
@@ -746,16 +763,16 @@
   <dimension ref="A1:E170"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A24" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D38" sqref="D38"/>
+      <pane ySplit="1" topLeftCell="A22" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D32" sqref="D32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="6.33203125" customWidth="1"/>
+    <col min="2" max="2" width="6.33203125" style="8" customWidth="1"/>
     <col min="3" max="3" width="10.6640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="63.6640625" style="6" customWidth="1"/>
-    <col min="5" max="5" width="75.109375" style="6" customWidth="1"/>
+    <col min="4" max="4" width="63.6640625" style="5" customWidth="1"/>
+    <col min="5" max="5" width="75.109375" style="5" customWidth="1"/>
     <col min="6" max="6" width="28.77734375" customWidth="1"/>
   </cols>
   <sheetData>
@@ -763,7 +780,7 @@
       <c r="A1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="5" t="s">
+      <c r="B1" s="7" t="s">
         <v>5</v>
       </c>
       <c r="C1" s="4" t="s">
@@ -780,16 +797,16 @@
       <c r="A2">
         <v>1</v>
       </c>
-      <c r="B2">
+      <c r="B2" s="8">
         <v>20</v>
       </c>
       <c r="C2" s="1">
         <v>45796</v>
       </c>
-      <c r="D2" s="6" t="s">
+      <c r="D2" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="E2" s="6" t="s">
+      <c r="E2" s="5" t="s">
         <v>4</v>
       </c>
     </row>
@@ -797,16 +814,16 @@
       <c r="A3">
         <v>2</v>
       </c>
-      <c r="B3">
+      <c r="B3" s="8">
         <v>28</v>
       </c>
       <c r="C3" s="1">
         <v>45796</v>
       </c>
-      <c r="D3" s="6" t="s">
+      <c r="D3" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="E3" s="6" t="s">
+      <c r="E3" s="5" t="s">
         <v>17</v>
       </c>
     </row>
@@ -814,16 +831,16 @@
       <c r="A4">
         <v>3</v>
       </c>
-      <c r="B4">
+      <c r="B4" s="8">
         <v>28</v>
       </c>
       <c r="C4" s="1">
         <v>45796</v>
       </c>
-      <c r="D4" s="6" t="s">
+      <c r="D4" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="E4" s="6" t="s">
+      <c r="E4" s="5" t="s">
         <v>15</v>
       </c>
     </row>
@@ -831,13 +848,16 @@
       <c r="A5">
         <v>4</v>
       </c>
+      <c r="B5" s="8" t="s">
+        <v>58</v>
+      </c>
       <c r="C5" s="1">
         <v>45796</v>
       </c>
-      <c r="D5" s="6" t="s">
+      <c r="D5" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="E5" s="6" t="s">
+      <c r="E5" s="5" t="s">
         <v>16</v>
       </c>
     </row>
@@ -845,16 +865,16 @@
       <c r="A6">
         <v>5</v>
       </c>
-      <c r="B6">
+      <c r="B6" s="8">
         <v>20</v>
       </c>
       <c r="C6" s="1">
         <v>45796</v>
       </c>
-      <c r="D6" s="6" t="s">
+      <c r="D6" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="E6" s="6" t="s">
+      <c r="E6" s="5" t="s">
         <v>14</v>
       </c>
     </row>
@@ -862,16 +882,16 @@
       <c r="A7">
         <v>6</v>
       </c>
-      <c r="B7">
+      <c r="B7" s="8">
         <v>22</v>
       </c>
       <c r="C7" s="1">
         <v>45796</v>
       </c>
-      <c r="D7" s="6" t="s">
+      <c r="D7" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="E7" s="6" t="s">
+      <c r="E7" s="5" t="s">
         <v>13</v>
       </c>
     </row>
@@ -879,16 +899,16 @@
       <c r="A8">
         <v>7</v>
       </c>
-      <c r="B8">
+      <c r="B8" s="8">
         <v>22</v>
       </c>
       <c r="C8" s="1">
         <v>45796</v>
       </c>
-      <c r="D8" s="6" t="s">
+      <c r="D8" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="E8" s="6" t="s">
+      <c r="E8" s="5" t="s">
         <v>11</v>
       </c>
     </row>
@@ -899,10 +919,10 @@
       <c r="C9" s="1">
         <v>45796</v>
       </c>
-      <c r="D9" s="6" t="s">
+      <c r="D9" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="E9" s="6" t="s">
+      <c r="E9" s="5" t="s">
         <v>31</v>
       </c>
     </row>
@@ -913,10 +933,10 @@
       <c r="C10" s="1">
         <v>45796</v>
       </c>
-      <c r="D10" s="6" t="s">
+      <c r="D10" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="E10" s="6" t="s">
+      <c r="E10" s="5" t="s">
         <v>22</v>
       </c>
     </row>
@@ -927,10 +947,10 @@
       <c r="C11" s="1">
         <v>45796</v>
       </c>
-      <c r="D11" s="6" t="s">
+      <c r="D11" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="E11" s="6" t="s">
+      <c r="E11" s="5" t="s">
         <v>21</v>
       </c>
     </row>
@@ -941,10 +961,10 @@
       <c r="C12" s="1">
         <v>45796</v>
       </c>
-      <c r="D12" s="6" t="s">
+      <c r="D12" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="E12" s="6" t="s">
+      <c r="E12" s="5" t="s">
         <v>32</v>
       </c>
     </row>
@@ -955,7 +975,7 @@
       <c r="C13" s="1">
         <v>45796</v>
       </c>
-      <c r="D13" s="6" t="s">
+      <c r="D13" s="5" t="s">
         <v>24</v>
       </c>
     </row>
@@ -966,10 +986,10 @@
       <c r="C14" s="1">
         <v>45797</v>
       </c>
-      <c r="D14" s="6" t="s">
+      <c r="D14" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="E14" s="6" t="s">
+      <c r="E14" s="5" t="s">
         <v>26</v>
       </c>
     </row>
@@ -980,7 +1000,7 @@
       <c r="C15" s="1">
         <v>45799</v>
       </c>
-      <c r="D15" s="6" t="s">
+      <c r="D15" s="5" t="s">
         <v>27</v>
       </c>
     </row>
@@ -988,16 +1008,16 @@
       <c r="A16">
         <v>15</v>
       </c>
-      <c r="B16">
+      <c r="B16" s="8">
         <v>28</v>
       </c>
       <c r="C16" s="1">
         <v>45799</v>
       </c>
-      <c r="D16" s="6" t="s">
+      <c r="D16" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="E16" s="6" t="s">
+      <c r="E16" s="5" t="s">
         <v>33</v>
       </c>
     </row>
@@ -1005,13 +1025,13 @@
       <c r="A17">
         <v>16</v>
       </c>
-      <c r="B17">
+      <c r="B17" s="8">
         <v>28</v>
       </c>
       <c r="C17" s="1">
         <v>45799</v>
       </c>
-      <c r="D17" s="6" t="s">
+      <c r="D17" s="5" t="s">
         <v>29</v>
       </c>
     </row>
@@ -1022,10 +1042,10 @@
       <c r="C18" s="1">
         <v>45803</v>
       </c>
-      <c r="D18" s="6" t="s">
+      <c r="D18" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="E18" s="6" t="s">
+      <c r="E18" s="5" t="s">
         <v>37</v>
       </c>
     </row>
@@ -1036,10 +1056,10 @@
       <c r="C19" s="1">
         <v>45803</v>
       </c>
-      <c r="D19" s="6" t="s">
+      <c r="D19" s="5" t="s">
         <v>35</v>
       </c>
-      <c r="E19" s="6" t="s">
+      <c r="E19" s="5" t="s">
         <v>36</v>
       </c>
     </row>
@@ -1047,13 +1067,13 @@
       <c r="A20">
         <v>19</v>
       </c>
-      <c r="B20">
+      <c r="B20" s="8">
         <v>28</v>
       </c>
       <c r="C20" s="1">
         <v>45805</v>
       </c>
-      <c r="D20" s="6" t="s">
+      <c r="D20" s="5" t="s">
         <v>38</v>
       </c>
     </row>
@@ -1064,7 +1084,7 @@
       <c r="C21" s="1">
         <v>45805</v>
       </c>
-      <c r="D21" s="6" t="s">
+      <c r="D21" s="5" t="s">
         <v>39</v>
       </c>
     </row>
@@ -1075,7 +1095,7 @@
       <c r="C22" s="1">
         <v>45805</v>
       </c>
-      <c r="D22" s="6" t="s">
+      <c r="D22" s="5" t="s">
         <v>40</v>
       </c>
     </row>
@@ -1086,7 +1106,7 @@
       <c r="C23" s="1">
         <v>45805</v>
       </c>
-      <c r="D23" s="6" t="s">
+      <c r="D23" s="5" t="s">
         <v>41</v>
       </c>
     </row>
@@ -1097,7 +1117,7 @@
       <c r="C24" s="1">
         <v>45806</v>
       </c>
-      <c r="D24" s="6" t="s">
+      <c r="D24" s="5" t="s">
         <v>42</v>
       </c>
     </row>
@@ -1108,7 +1128,7 @@
       <c r="C25" s="1">
         <v>45806</v>
       </c>
-      <c r="D25" s="6" t="s">
+      <c r="D25" s="5" t="s">
         <v>46</v>
       </c>
     </row>
@@ -1119,7 +1139,7 @@
       <c r="C26" s="1">
         <v>45806</v>
       </c>
-      <c r="D26" s="6" t="s">
+      <c r="D26" s="5" t="s">
         <v>43</v>
       </c>
     </row>
@@ -1127,10 +1147,10 @@
       <c r="A27">
         <v>26</v>
       </c>
-      <c r="C27" s="7">
+      <c r="C27" s="6">
         <v>45806</v>
       </c>
-      <c r="D27" s="6" t="s">
+      <c r="D27" s="5" t="s">
         <v>44</v>
       </c>
     </row>
@@ -1138,13 +1158,13 @@
       <c r="A28">
         <v>27</v>
       </c>
-      <c r="B28">
+      <c r="B28" s="8">
         <v>31</v>
       </c>
       <c r="C28" s="1">
         <v>45806</v>
       </c>
-      <c r="D28" s="6" t="s">
+      <c r="D28" s="5" t="s">
         <v>45</v>
       </c>
     </row>
@@ -1155,7 +1175,7 @@
       <c r="C29" s="1">
         <v>45807</v>
       </c>
-      <c r="D29" s="6" t="s">
+      <c r="D29" s="5" t="s">
         <v>47</v>
       </c>
     </row>
@@ -1163,13 +1183,13 @@
       <c r="A30">
         <v>29</v>
       </c>
-      <c r="B30">
+      <c r="B30" s="8">
         <v>31</v>
       </c>
       <c r="C30" s="1">
         <v>45807</v>
       </c>
-      <c r="D30" s="6" t="s">
+      <c r="D30" s="5" t="s">
         <v>48</v>
       </c>
     </row>
@@ -1180,10 +1200,10 @@
       <c r="C31" s="1">
         <v>45808</v>
       </c>
-      <c r="D31" s="6" t="s">
+      <c r="D31" s="5" t="s">
         <v>50</v>
       </c>
-      <c r="E31" s="6" t="s">
+      <c r="E31" s="5" t="s">
         <v>51</v>
       </c>
     </row>
@@ -1194,7 +1214,7 @@
       <c r="C32" s="1">
         <v>45808</v>
       </c>
-      <c r="D32" s="6" t="s">
+      <c r="D32" s="5" t="s">
         <v>49</v>
       </c>
     </row>
@@ -1205,10 +1225,10 @@
       <c r="C33" s="1">
         <v>45808</v>
       </c>
-      <c r="D33" s="6" t="s">
+      <c r="D33" s="5" t="s">
         <v>52</v>
       </c>
-      <c r="E33" s="6" t="s">
+      <c r="E33" s="5" t="s">
         <v>53</v>
       </c>
     </row>
@@ -1219,7 +1239,7 @@
       <c r="C34" t="s">
         <v>54</v>
       </c>
-      <c r="D34" s="6" t="s">
+      <c r="D34" s="5" t="s">
         <v>55</v>
       </c>
     </row>
@@ -1227,10 +1247,22 @@
       <c r="A35">
         <v>34</v>
       </c>
+      <c r="C35" t="s">
+        <v>56</v>
+      </c>
+      <c r="D35" s="5" t="s">
+        <v>57</v>
+      </c>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A36">
         <v>35</v>
+      </c>
+      <c r="C36" s="1">
+        <v>45816</v>
+      </c>
+      <c r="D36" s="5" t="s">
+        <v>59</v>
       </c>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.25">

--- a/开发文档文件夹/各种小BUG.xlsx
+++ b/开发文档文件夹/各种小BUG.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\_Unity\_UnityProject\FlatWorld\开发文档文件夹\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\UnityProject\TerraFlat\开发文档文件夹\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8A264B85-234D-44DE-BEB4-44BEB4DC6D5B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0052A2A0-EDEA-4BF1-892B-E7A75CCFE45E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{B1C3257B-F98A-4619-B0C9-FFE03A007455}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16896" xr2:uid="{B1C3257B-F98A-4619-B0C9-FFE03A007455}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="60">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="71">
   <si>
     <t>问题序号</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -270,6 +270,49 @@
   </si>
   <si>
     <t>将精力系统转换为Buff系统进行控制</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>优化Item和其行为模块的结构</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>优化Move 移动模块</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0608</t>
+  </si>
+  <si>
+    <t>0608</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>优化攻击模块</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>优化行为树的节点们</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>为速度变更添加事件</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>修复鸡哥吃草的行为 强化逻辑 避免反复书写Eat and BeEat 最好可以形成模块</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>制作物品生成类(使生成的物品不是凭空出现而是带有动画)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>房子安装时将掉落物挤出来</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>程序化生成地形</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -394,7 +437,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -421,6 +464,9 @@
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" xfId="4" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="5">
@@ -763,8 +809,8 @@
   <dimension ref="A1:E170"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A22" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D32" sqref="D32"/>
+      <pane ySplit="1" topLeftCell="A10" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D18" sqref="D18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -916,6 +962,9 @@
       <c r="A9">
         <v>8</v>
       </c>
+      <c r="B9" s="8" t="s">
+        <v>63</v>
+      </c>
       <c r="C9" s="1">
         <v>45796</v>
       </c>
@@ -930,6 +979,9 @@
       <c r="A10">
         <v>9</v>
       </c>
+      <c r="B10" s="8" t="s">
+        <v>63</v>
+      </c>
       <c r="C10" s="1">
         <v>45796</v>
       </c>
@@ -944,6 +996,9 @@
       <c r="A11">
         <v>10</v>
       </c>
+      <c r="B11" s="8" t="s">
+        <v>63</v>
+      </c>
       <c r="C11" s="1">
         <v>45796</v>
       </c>
@@ -958,6 +1013,9 @@
       <c r="A12">
         <v>11</v>
       </c>
+      <c r="B12" s="8" t="s">
+        <v>63</v>
+      </c>
       <c r="C12" s="1">
         <v>45796</v>
       </c>
@@ -972,6 +1030,9 @@
       <c r="A13">
         <v>12</v>
       </c>
+      <c r="B13" s="8" t="s">
+        <v>62</v>
+      </c>
       <c r="C13" s="1">
         <v>45796</v>
       </c>
@@ -986,7 +1047,7 @@
       <c r="C14" s="1">
         <v>45797</v>
       </c>
-      <c r="D14" s="5" t="s">
+      <c r="D14" s="9" t="s">
         <v>25</v>
       </c>
       <c r="E14" s="5" t="s">
@@ -1000,7 +1061,7 @@
       <c r="C15" s="1">
         <v>45799</v>
       </c>
-      <c r="D15" s="5" t="s">
+      <c r="D15" s="9" t="s">
         <v>27</v>
       </c>
     </row>
@@ -1114,6 +1175,9 @@
       <c r="A24">
         <v>23</v>
       </c>
+      <c r="B24" s="8" t="s">
+        <v>63</v>
+      </c>
       <c r="C24" s="1">
         <v>45806</v>
       </c>
@@ -1269,45 +1333,99 @@
       <c r="A37">
         <v>36</v>
       </c>
+      <c r="C37" s="1">
+        <v>45816</v>
+      </c>
+      <c r="D37" s="5" t="s">
+        <v>60</v>
+      </c>
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A38">
         <v>37</v>
       </c>
+      <c r="C38" s="1">
+        <v>45816</v>
+      </c>
+      <c r="D38" s="5" t="s">
+        <v>61</v>
+      </c>
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A39">
         <v>38</v>
       </c>
+      <c r="C39" s="1">
+        <v>45816</v>
+      </c>
+      <c r="D39" s="5" t="s">
+        <v>64</v>
+      </c>
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A40">
         <v>39</v>
       </c>
-    </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="C40" s="1">
+        <v>45816</v>
+      </c>
+      <c r="D40" s="5" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" ht="27.6" x14ac:dyDescent="0.25">
       <c r="A41">
         <v>40</v>
+      </c>
+      <c r="C41" s="1">
+        <v>45816</v>
+      </c>
+      <c r="D41" s="5" t="s">
+        <v>67</v>
       </c>
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A42">
         <v>41</v>
       </c>
+      <c r="C42" s="1">
+        <v>45816</v>
+      </c>
+      <c r="D42" s="5" t="s">
+        <v>66</v>
+      </c>
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A43">
         <v>42</v>
       </c>
+      <c r="C43" s="1">
+        <v>45816</v>
+      </c>
+      <c r="D43" s="5" t="s">
+        <v>68</v>
+      </c>
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A44">
         <v>43</v>
       </c>
+      <c r="C44" s="1">
+        <v>45816</v>
+      </c>
+      <c r="D44" s="5" t="s">
+        <v>69</v>
+      </c>
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A45">
         <v>44</v>
+      </c>
+      <c r="C45" s="1">
+        <v>45816</v>
+      </c>
+      <c r="D45" s="5" t="s">
+        <v>70</v>
       </c>
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.25">

--- a/开发文档文件夹/各种小BUG.xlsx
+++ b/开发文档文件夹/各种小BUG.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\UnityProject\TerraFlat\开发文档文件夹\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\_Unity\_UnityProject\FlatWorld\开发文档文件夹\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0052A2A0-EDEA-4BF1-892B-E7A75CCFE45E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3910D536-0A2B-4F71-8925-EB4F59AD7877}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16896" xr2:uid="{B1C3257B-F98A-4619-B0C9-FFE03A007455}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{B1C3257B-F98A-4619-B0C9-FFE03A007455}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="71">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="73">
   <si>
     <t>问题序号</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -313,6 +313,14 @@
   </si>
   <si>
     <t>程序化生成地形</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>解决小草不断检测周围物品带来的性能问题</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0609</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -809,8 +817,8 @@
   <dimension ref="A1:E170"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A10" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D18" sqref="D18"/>
+      <pane ySplit="1" topLeftCell="A18" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D27" sqref="D27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -1189,6 +1197,9 @@
       <c r="A25">
         <v>24</v>
       </c>
+      <c r="B25" s="8" t="s">
+        <v>72</v>
+      </c>
       <c r="C25" s="1">
         <v>45806</v>
       </c>
@@ -1431,6 +1442,12 @@
     <row r="46" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A46">
         <v>45</v>
+      </c>
+      <c r="C46" s="1">
+        <v>45817</v>
+      </c>
+      <c r="D46" s="5" t="s">
+        <v>71</v>
       </c>
     </row>
     <row r="47" spans="1:5" x14ac:dyDescent="0.25">

--- a/开发文档文件夹/各种小BUG.xlsx
+++ b/开发文档文件夹/各种小BUG.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\_Unity\_UnityProject\FlatWorld\开发文档文件夹\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\UnityProject\TerraFlat\开发文档文件夹\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3910D536-0A2B-4F71-8925-EB4F59AD7877}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D12B74E6-1495-4CB8-8B32-0EB6969D633D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{B1C3257B-F98A-4619-B0C9-FFE03A007455}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16896" xr2:uid="{B1C3257B-F98A-4619-B0C9-FFE03A007455}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="73">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="76">
   <si>
     <t>问题序号</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -205,10 +205,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>添加选择开始场景的功能</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>在SaveData中添加唯一识别码 表示其作为活动的Item的唯一表示 用于在SaveData中方便其他用户查找          在Res中创建一个新的字典 用于记录当前的活动对象 使用其Res分发的ID识别码可以快捷的从Res中查找到他</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -321,6 +317,22 @@
   </si>
   <si>
     <t>0609</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>添加选择开始场景的功能/与程序化地形生成冲突</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>使用RumItemManager 已经解决</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>保存存档 也就是退出游戏到主菜单</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>区分1.存档路径 2.模板路径 3.保存存档路径</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -445,7 +457,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -464,9 +476,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="49" fontId="6" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -474,6 +483,36 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="4" borderId="0" xfId="4" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="4" borderId="0" xfId="4" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="58" fontId="5" fillId="4" borderId="0" xfId="4" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="3">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="3" borderId="0" xfId="3" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="58" fontId="4" fillId="3" borderId="0" xfId="3" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="3" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="2">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="2" borderId="0" xfId="2" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="3" fillId="2" borderId="0" xfId="2" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="2" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -817,13 +856,13 @@
   <dimension ref="A1:E170"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A18" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D27" sqref="D27"/>
+      <pane ySplit="1" topLeftCell="A32" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D52" sqref="D52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="6.33203125" style="8" customWidth="1"/>
+    <col min="2" max="2" width="6.33203125" style="7" customWidth="1"/>
     <col min="3" max="3" width="10.6640625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="63.6640625" style="5" customWidth="1"/>
     <col min="5" max="5" width="75.109375" style="5" customWidth="1"/>
@@ -834,7 +873,7 @@
       <c r="A1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="7" t="s">
+      <c r="B1" s="6" t="s">
         <v>5</v>
       </c>
       <c r="C1" s="4" t="s">
@@ -851,7 +890,7 @@
       <c r="A2">
         <v>1</v>
       </c>
-      <c r="B2" s="8">
+      <c r="B2" s="7">
         <v>20</v>
       </c>
       <c r="C2" s="1">
@@ -868,7 +907,7 @@
       <c r="A3">
         <v>2</v>
       </c>
-      <c r="B3" s="8">
+      <c r="B3" s="7">
         <v>28</v>
       </c>
       <c r="C3" s="1">
@@ -885,7 +924,7 @@
       <c r="A4">
         <v>3</v>
       </c>
-      <c r="B4" s="8">
+      <c r="B4" s="7">
         <v>28</v>
       </c>
       <c r="C4" s="1">
@@ -902,8 +941,8 @@
       <c r="A5">
         <v>4</v>
       </c>
-      <c r="B5" s="8" t="s">
-        <v>58</v>
+      <c r="B5" s="7" t="s">
+        <v>57</v>
       </c>
       <c r="C5" s="1">
         <v>45796</v>
@@ -919,7 +958,7 @@
       <c r="A6">
         <v>5</v>
       </c>
-      <c r="B6" s="8">
+      <c r="B6" s="7">
         <v>20</v>
       </c>
       <c r="C6" s="1">
@@ -936,7 +975,7 @@
       <c r="A7">
         <v>6</v>
       </c>
-      <c r="B7" s="8">
+      <c r="B7" s="7">
         <v>22</v>
       </c>
       <c r="C7" s="1">
@@ -953,7 +992,7 @@
       <c r="A8">
         <v>7</v>
       </c>
-      <c r="B8" s="8">
+      <c r="B8" s="7">
         <v>22</v>
       </c>
       <c r="C8" s="1">
@@ -970,8 +1009,8 @@
       <c r="A9">
         <v>8</v>
       </c>
-      <c r="B9" s="8" t="s">
-        <v>63</v>
+      <c r="B9" s="7" t="s">
+        <v>62</v>
       </c>
       <c r="C9" s="1">
         <v>45796</v>
@@ -987,8 +1026,8 @@
       <c r="A10">
         <v>9</v>
       </c>
-      <c r="B10" s="8" t="s">
-        <v>63</v>
+      <c r="B10" s="7" t="s">
+        <v>62</v>
       </c>
       <c r="C10" s="1">
         <v>45796</v>
@@ -1004,8 +1043,8 @@
       <c r="A11">
         <v>10</v>
       </c>
-      <c r="B11" s="8" t="s">
-        <v>63</v>
+      <c r="B11" s="7" t="s">
+        <v>62</v>
       </c>
       <c r="C11" s="1">
         <v>45796</v>
@@ -1021,8 +1060,8 @@
       <c r="A12">
         <v>11</v>
       </c>
-      <c r="B12" s="8" t="s">
-        <v>63</v>
+      <c r="B12" s="7" t="s">
+        <v>62</v>
       </c>
       <c r="C12" s="1">
         <v>45796</v>
@@ -1038,8 +1077,8 @@
       <c r="A13">
         <v>12</v>
       </c>
-      <c r="B13" s="8" t="s">
-        <v>62</v>
+      <c r="B13" s="7" t="s">
+        <v>61</v>
       </c>
       <c r="C13" s="1">
         <v>45796</v>
@@ -1048,36 +1087,39 @@
         <v>24</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A14">
+    <row r="14" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="4">
         <v>13</v>
       </c>
-      <c r="C14" s="1">
+      <c r="B14" s="9"/>
+      <c r="C14" s="10">
         <v>45797</v>
       </c>
-      <c r="D14" s="9" t="s">
+      <c r="D14" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="E14" s="5" t="s">
+      <c r="E14" s="8" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A15">
+    <row r="15" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="4">
         <v>14</v>
       </c>
-      <c r="C15" s="1">
+      <c r="B15" s="9"/>
+      <c r="C15" s="10">
         <v>45799</v>
       </c>
-      <c r="D15" s="9" t="s">
+      <c r="D15" s="8" t="s">
         <v>27</v>
       </c>
+      <c r="E15" s="8"/>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>15</v>
       </c>
-      <c r="B16" s="8">
+      <c r="B16" s="7">
         <v>28</v>
       </c>
       <c r="C16" s="1">
@@ -1094,7 +1136,7 @@
       <c r="A17">
         <v>16</v>
       </c>
-      <c r="B17" s="8">
+      <c r="B17" s="7">
         <v>28</v>
       </c>
       <c r="C17" s="1">
@@ -1104,31 +1146,33 @@
         <v>29</v>
       </c>
     </row>
-    <row r="18" spans="1:5" ht="41.4" x14ac:dyDescent="0.25">
-      <c r="A18">
+    <row r="18" spans="1:5" s="4" customFormat="1" ht="41.4" x14ac:dyDescent="0.25">
+      <c r="A18" s="4">
         <v>17</v>
       </c>
-      <c r="C18" s="1">
+      <c r="B18" s="9"/>
+      <c r="C18" s="10">
         <v>45803</v>
       </c>
-      <c r="D18" s="5" t="s">
+      <c r="D18" s="8" t="s">
         <v>34</v>
       </c>
-      <c r="E18" s="5" t="s">
+      <c r="E18" s="8" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="19" spans="1:5" ht="27.6" x14ac:dyDescent="0.25">
-      <c r="A19">
+    <row r="19" spans="1:5" s="4" customFormat="1" ht="27.6" x14ac:dyDescent="0.25">
+      <c r="A19" s="4">
         <v>18</v>
       </c>
-      <c r="C19" s="1">
+      <c r="B19" s="9"/>
+      <c r="C19" s="10">
         <v>45803</v>
       </c>
-      <c r="D19" s="5" t="s">
+      <c r="D19" s="8" t="s">
         <v>35</v>
       </c>
-      <c r="E19" s="5" t="s">
+      <c r="E19" s="8" t="s">
         <v>36</v>
       </c>
     </row>
@@ -1136,7 +1180,7 @@
       <c r="A20">
         <v>19</v>
       </c>
-      <c r="B20" s="8">
+      <c r="B20" s="7">
         <v>28</v>
       </c>
       <c r="C20" s="1">
@@ -1146,16 +1190,18 @@
         <v>38</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A21">
+    <row r="21" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="4">
         <v>20</v>
       </c>
-      <c r="C21" s="1">
+      <c r="B21" s="9"/>
+      <c r="C21" s="10">
         <v>45805</v>
       </c>
-      <c r="D21" s="5" t="s">
+      <c r="D21" s="8" t="s">
         <v>39</v>
       </c>
+      <c r="E21" s="8"/>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22">
@@ -1168,23 +1214,25 @@
         <v>40</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A23">
+    <row r="23" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="4">
         <v>22</v>
       </c>
-      <c r="C23" s="1">
+      <c r="B23" s="9"/>
+      <c r="C23" s="10">
         <v>45805</v>
       </c>
-      <c r="D23" s="5" t="s">
+      <c r="D23" s="8" t="s">
         <v>41</v>
       </c>
+      <c r="E23" s="8"/>
     </row>
     <row r="24" spans="1:5" ht="27.6" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>23</v>
       </c>
-      <c r="B24" s="8" t="s">
-        <v>63</v>
+      <c r="B24" s="7" t="s">
+        <v>62</v>
       </c>
       <c r="C24" s="1">
         <v>45806</v>
@@ -1197,50 +1245,56 @@
       <c r="A25">
         <v>24</v>
       </c>
-      <c r="B25" s="8" t="s">
-        <v>72</v>
+      <c r="B25" s="7" t="s">
+        <v>71</v>
       </c>
       <c r="C25" s="1">
         <v>45806</v>
       </c>
       <c r="D25" s="5" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A26">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="11">
         <v>25</v>
       </c>
-      <c r="C26" s="1">
+      <c r="B26" s="12"/>
+      <c r="C26" s="13">
         <v>45806</v>
       </c>
-      <c r="D26" s="5" t="s">
+      <c r="D26" s="14" t="s">
+        <v>72</v>
+      </c>
+      <c r="E26" s="14"/>
+    </row>
+    <row r="27" spans="1:5" s="15" customFormat="1" ht="41.4" x14ac:dyDescent="0.25">
+      <c r="A27" s="15">
+        <v>26</v>
+      </c>
+      <c r="B27" s="16"/>
+      <c r="C27" s="17">
+        <v>45806</v>
+      </c>
+      <c r="D27" s="18" t="s">
         <v>43</v>
       </c>
-    </row>
-    <row r="27" spans="1:5" ht="41.4" x14ac:dyDescent="0.25">
-      <c r="A27">
-        <v>26</v>
-      </c>
-      <c r="C27" s="6">
-        <v>45806</v>
-      </c>
-      <c r="D27" s="5" t="s">
-        <v>44</v>
+      <c r="E27" s="18" t="s">
+        <v>73</v>
       </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>27</v>
       </c>
-      <c r="B28" s="8">
+      <c r="B28" s="7">
         <v>31</v>
       </c>
       <c r="C28" s="1">
         <v>45806</v>
       </c>
       <c r="D28" s="5" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.25">
@@ -1251,21 +1305,21 @@
         <v>45807</v>
       </c>
       <c r="D29" s="5" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>29</v>
       </c>
-      <c r="B30" s="8">
+      <c r="B30" s="7">
         <v>31</v>
       </c>
       <c r="C30" s="1">
         <v>45807</v>
       </c>
       <c r="D30" s="5" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.25">
@@ -1276,10 +1330,10 @@
         <v>45808</v>
       </c>
       <c r="D31" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="E31" s="5" t="s">
         <v>50</v>
-      </c>
-      <c r="E31" s="5" t="s">
-        <v>51</v>
       </c>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.25">
@@ -1290,7 +1344,7 @@
         <v>45808</v>
       </c>
       <c r="D32" s="5" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.25">
@@ -1301,10 +1355,10 @@
         <v>45808</v>
       </c>
       <c r="D33" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="E33" s="5" t="s">
         <v>52</v>
-      </c>
-      <c r="E33" s="5" t="s">
-        <v>53</v>
       </c>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.25">
@@ -1312,10 +1366,10 @@
         <v>33</v>
       </c>
       <c r="C34" t="s">
+        <v>53</v>
+      </c>
+      <c r="D34" s="5" t="s">
         <v>54</v>
-      </c>
-      <c r="D34" s="5" t="s">
-        <v>55</v>
       </c>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.25">
@@ -1323,10 +1377,10 @@
         <v>34</v>
       </c>
       <c r="C35" t="s">
+        <v>55</v>
+      </c>
+      <c r="D35" s="5" t="s">
         <v>56</v>
-      </c>
-      <c r="D35" s="5" t="s">
-        <v>57</v>
       </c>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.25">
@@ -1337,7 +1391,7 @@
         <v>45816</v>
       </c>
       <c r="D36" s="5" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.25">
@@ -1348,7 +1402,7 @@
         <v>45816</v>
       </c>
       <c r="D37" s="5" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.25">
@@ -1359,7 +1413,7 @@
         <v>45816</v>
       </c>
       <c r="D38" s="5" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.25">
@@ -1370,7 +1424,7 @@
         <v>45816</v>
       </c>
       <c r="D39" s="5" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.25">
@@ -1381,7 +1435,7 @@
         <v>45816</v>
       </c>
       <c r="D40" s="5" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="41" spans="1:5" ht="27.6" x14ac:dyDescent="0.25">
@@ -1392,7 +1446,7 @@
         <v>45816</v>
       </c>
       <c r="D41" s="5" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.25">
@@ -1403,7 +1457,7 @@
         <v>45816</v>
       </c>
       <c r="D42" s="5" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.25">
@@ -1414,7 +1468,7 @@
         <v>45816</v>
       </c>
       <c r="D43" s="5" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.25">
@@ -1425,7 +1479,7 @@
         <v>45816</v>
       </c>
       <c r="D44" s="5" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.25">
@@ -1436,7 +1490,7 @@
         <v>45816</v>
       </c>
       <c r="D45" s="5" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.25">
@@ -1447,17 +1501,29 @@
         <v>45817</v>
       </c>
       <c r="D46" s="5" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="47" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A47">
         <v>46</v>
       </c>
+      <c r="C47" s="1">
+        <v>45817</v>
+      </c>
+      <c r="D47" s="5" t="s">
+        <v>74</v>
+      </c>
     </row>
     <row r="48" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A48">
         <v>47</v>
+      </c>
+      <c r="C48" s="1">
+        <v>45817</v>
+      </c>
+      <c r="D48" s="5" t="s">
+        <v>75</v>
       </c>
     </row>
     <row r="49" spans="1:1" x14ac:dyDescent="0.25">

--- a/开发文档文件夹/各种小BUG.xlsx
+++ b/开发文档文件夹/各种小BUG.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\UnityProject\TerraFlat\开发文档文件夹\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D12B74E6-1495-4CB8-8B32-0EB6969D633D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4772930C-5272-40CA-BF5A-8CB5E63F16F6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16896" xr2:uid="{B1C3257B-F98A-4619-B0C9-FFE03A007455}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="76">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="79">
   <si>
     <t>问题序号</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -333,6 +333,18 @@
   </si>
   <si>
     <t>区分1.存档路径 2.模板路径 3.保存存档路径</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>优化主界面的UI面板代码逻辑</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>创建玩家系统设置逻辑(退出游戏并存档)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>修复存档路径 和玩家名称之间的关系</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -856,8 +868,8 @@
   <dimension ref="A1:E170"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A32" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D52" sqref="D52"/>
+      <pane ySplit="1" topLeftCell="A41" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D57" sqref="D57"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -1526,82 +1538,100 @@
         <v>75</v>
       </c>
     </row>
-    <row r="49" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A49">
         <v>48</v>
       </c>
-    </row>
-    <row r="50" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="C49" s="1">
+        <v>45819</v>
+      </c>
+      <c r="D49" s="5" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A50">
         <v>49</v>
       </c>
-    </row>
-    <row r="51" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="C50" s="1">
+        <v>45819</v>
+      </c>
+      <c r="D50" s="5" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A51">
         <v>50</v>
       </c>
-    </row>
-    <row r="52" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="C51" s="1">
+        <v>45819</v>
+      </c>
+      <c r="D51" s="5" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A52">
         <v>51</v>
       </c>
     </row>
-    <row r="53" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A53">
         <v>52</v>
       </c>
     </row>
-    <row r="54" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A54">
         <v>53</v>
       </c>
     </row>
-    <row r="55" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A55">
         <v>54</v>
       </c>
     </row>
-    <row r="56" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A56">
         <v>55</v>
       </c>
     </row>
-    <row r="57" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A57">
         <v>56</v>
       </c>
     </row>
-    <row r="58" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A58">
         <v>57</v>
       </c>
     </row>
-    <row r="59" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A59">
         <v>58</v>
       </c>
     </row>
-    <row r="60" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A60">
         <v>59</v>
       </c>
     </row>
-    <row r="61" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A61">
         <v>60</v>
       </c>
     </row>
-    <row r="62" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A62">
         <v>61</v>
       </c>
     </row>
-    <row r="63" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A63">
         <v>62</v>
       </c>
     </row>
-    <row r="64" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A64">
         <v>63</v>
       </c>

--- a/开发文档文件夹/各种小BUG.xlsx
+++ b/开发文档文件夹/各种小BUG.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\UnityProject\TerraFlat\开发文档文件夹\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4772930C-5272-40CA-BF5A-8CB5E63F16F6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C67F6E61-0C4C-4B00-9A47-FAFC63A84839}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16896" xr2:uid="{B1C3257B-F98A-4619-B0C9-FFE03A007455}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="79">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="82">
   <si>
     <t>问题序号</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -345,6 +345,18 @@
   </si>
   <si>
     <t>修复存档路径 和玩家名称之间的关系</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>修复合成站 熔炉</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0615</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>修复手动合成</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -469,7 +481,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -526,6 +538,9 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="2" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="58" fontId="3" fillId="2" borderId="0" xfId="2" applyNumberFormat="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="5">
@@ -1085,19 +1100,20 @@
         <v>32</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A13">
+    <row r="13" spans="1:5" s="15" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="15">
         <v>12</v>
       </c>
-      <c r="B13" s="7" t="s">
+      <c r="B13" s="16" t="s">
         <v>61</v>
       </c>
-      <c r="C13" s="1">
+      <c r="C13" s="19">
         <v>45796</v>
       </c>
-      <c r="D13" s="5" t="s">
+      <c r="D13" s="18" t="s">
         <v>24</v>
       </c>
+      <c r="E13" s="18"/>
     </row>
     <row r="14" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A14" s="4">
@@ -1144,19 +1160,20 @@
         <v>33</v>
       </c>
     </row>
-    <row r="17" spans="1:5" ht="41.4" x14ac:dyDescent="0.25">
-      <c r="A17">
+    <row r="17" spans="1:5" s="15" customFormat="1" ht="41.4" x14ac:dyDescent="0.25">
+      <c r="A17" s="15">
         <v>16</v>
       </c>
-      <c r="B17" s="7">
+      <c r="B17" s="16">
         <v>28</v>
       </c>
-      <c r="C17" s="1">
+      <c r="C17" s="19">
         <v>45799</v>
       </c>
-      <c r="D17" s="5" t="s">
+      <c r="D17" s="18" t="s">
         <v>29</v>
       </c>
+      <c r="E17" s="18"/>
     </row>
     <row r="18" spans="1:5" s="4" customFormat="1" ht="41.4" x14ac:dyDescent="0.25">
       <c r="A18" s="4">
@@ -1215,16 +1232,18 @@
       </c>
       <c r="E21" s="8"/>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A22">
+    <row r="22" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="4">
         <v>21</v>
       </c>
-      <c r="C22" s="1">
+      <c r="B22" s="9"/>
+      <c r="C22" s="10">
         <v>45805</v>
       </c>
-      <c r="D22" s="5" t="s">
+      <c r="D22" s="8" t="s">
         <v>40</v>
       </c>
+      <c r="E22" s="8"/>
     </row>
     <row r="23" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A23" s="4">
@@ -1313,6 +1332,9 @@
       <c r="A29">
         <v>28</v>
       </c>
+      <c r="B29" s="7" t="s">
+        <v>80</v>
+      </c>
       <c r="C29" s="1">
         <v>45807</v>
       </c>
@@ -1338,6 +1360,9 @@
       <c r="A31">
         <v>30</v>
       </c>
+      <c r="B31" s="7" t="s">
+        <v>80</v>
+      </c>
       <c r="C31" s="1">
         <v>45808</v>
       </c>
@@ -1352,6 +1377,9 @@
       <c r="A32">
         <v>31</v>
       </c>
+      <c r="B32" s="7" t="s">
+        <v>80</v>
+      </c>
       <c r="C32" s="1">
         <v>45808</v>
       </c>
@@ -1575,10 +1603,22 @@
       <c r="A52">
         <v>51</v>
       </c>
+      <c r="C52" s="1">
+        <v>45823</v>
+      </c>
+      <c r="D52" s="5" t="s">
+        <v>79</v>
+      </c>
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A53">
         <v>52</v>
+      </c>
+      <c r="C53" s="1">
+        <v>45823</v>
+      </c>
+      <c r="D53" s="5" t="s">
+        <v>81</v>
       </c>
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.25">

--- a/开发文档文件夹/各种小BUG.xlsx
+++ b/开发文档文件夹/各种小BUG.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\UnityProject\TerraFlat\开发文档文件夹\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\_Unity\_UnityProject\FlatWorld\开发文档文件夹\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C67F6E61-0C4C-4B00-9A47-FAFC63A84839}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DAF08783-AB75-4E99-84D0-63DB0A36FD97}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16896" xr2:uid="{B1C3257B-F98A-4619-B0C9-FFE03A007455}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{B1C3257B-F98A-4619-B0C9-FFE03A007455}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="82">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="82">
   <si>
     <t>问题序号</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -883,8 +883,8 @@
   <dimension ref="A1:E170"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A41" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D57" sqref="D57"/>
+      <pane ySplit="1" topLeftCell="A33" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D41" sqref="D41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -1416,6 +1416,9 @@
       <c r="A35">
         <v>34</v>
       </c>
+      <c r="B35" s="7" t="s">
+        <v>80</v>
+      </c>
       <c r="C35" t="s">
         <v>55</v>
       </c>
@@ -1430,7 +1433,7 @@
       <c r="C36" s="1">
         <v>45816</v>
       </c>
-      <c r="D36" s="5" t="s">
+      <c r="D36" s="8" t="s">
         <v>58</v>
       </c>
     </row>
@@ -1441,7 +1444,7 @@
       <c r="C37" s="1">
         <v>45816</v>
       </c>
-      <c r="D37" s="5" t="s">
+      <c r="D37" s="8" t="s">
         <v>59</v>
       </c>
     </row>
@@ -1452,7 +1455,7 @@
       <c r="C38" s="1">
         <v>45816</v>
       </c>
-      <c r="D38" s="5" t="s">
+      <c r="D38" s="8" t="s">
         <v>60</v>
       </c>
     </row>
@@ -1463,7 +1466,7 @@
       <c r="C39" s="1">
         <v>45816</v>
       </c>
-      <c r="D39" s="5" t="s">
+      <c r="D39" s="8" t="s">
         <v>63</v>
       </c>
     </row>
@@ -1474,7 +1477,7 @@
       <c r="C40" s="1">
         <v>45816</v>
       </c>
-      <c r="D40" s="5" t="s">
+      <c r="D40" s="8" t="s">
         <v>64</v>
       </c>
     </row>

--- a/开发文档文件夹/各种小BUG.xlsx
+++ b/开发文档文件夹/各种小BUG.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\_Unity\_UnityProject\FlatWorld\开发文档文件夹\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\UnityProject\TerraFlat\开发文档文件夹\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DAF08783-AB75-4E99-84D0-63DB0A36FD97}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FAA70A46-AFB8-42F7-B784-9B9D398857F4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{B1C3257B-F98A-4619-B0C9-FFE03A007455}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16896" xr2:uid="{B1C3257B-F98A-4619-B0C9-FFE03A007455}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="82">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="83">
   <si>
     <t>问题序号</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -357,6 +357,10 @@
   </si>
   <si>
     <t>修复手动合成</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0616</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -883,8 +887,8 @@
   <dimension ref="A1:E170"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A33" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D41" sqref="D41"/>
+      <pane ySplit="1" topLeftCell="A24" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D44" sqref="D44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -1387,17 +1391,18 @@
         <v>48</v>
       </c>
     </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A33">
+    <row r="33" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A33" s="4">
         <v>32</v>
       </c>
-      <c r="C33" s="1">
+      <c r="B33" s="9"/>
+      <c r="C33" s="10">
         <v>45808</v>
       </c>
-      <c r="D33" s="5" t="s">
+      <c r="D33" s="8" t="s">
         <v>51</v>
       </c>
-      <c r="E33" s="5" t="s">
+      <c r="E33" s="8" t="s">
         <v>52</v>
       </c>
     </row>
@@ -1405,12 +1410,16 @@
       <c r="A34">
         <v>33</v>
       </c>
+      <c r="B34" s="7" t="s">
+        <v>82</v>
+      </c>
       <c r="C34" t="s">
         <v>53</v>
       </c>
-      <c r="D34" s="5" t="s">
+      <c r="D34" t="s">
         <v>54</v>
       </c>
+      <c r="E34"/>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A35">
@@ -1485,6 +1494,9 @@
       <c r="A41">
         <v>40</v>
       </c>
+      <c r="B41" s="7" t="s">
+        <v>82</v>
+      </c>
       <c r="C41" s="1">
         <v>45816</v>
       </c>
@@ -1492,27 +1504,31 @@
         <v>66</v>
       </c>
     </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A42">
+    <row r="42" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A42" s="4">
         <v>41</v>
       </c>
-      <c r="C42" s="1">
+      <c r="B42" s="9"/>
+      <c r="C42" s="10">
         <v>45816</v>
       </c>
-      <c r="D42" s="5" t="s">
+      <c r="D42" s="8" t="s">
         <v>65</v>
       </c>
-    </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A43">
+      <c r="E42" s="8"/>
+    </row>
+    <row r="43" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A43" s="4">
         <v>42</v>
       </c>
-      <c r="C43" s="1">
+      <c r="B43" s="9"/>
+      <c r="C43" s="10">
         <v>45816</v>
       </c>
-      <c r="D43" s="5" t="s">
+      <c r="D43" s="8" t="s">
         <v>67</v>
       </c>
+      <c r="E43" s="8"/>
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A44">

--- a/开发文档文件夹/各种小BUG.xlsx
+++ b/开发文档文件夹/各种小BUG.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\UnityProject\TerraFlat\开发文档文件夹\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\_Unity\_UnityProject\FlatWorld\开发文档文件夹\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FAA70A46-AFB8-42F7-B784-9B9D398857F4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BF167A7B-87F0-4022-9A14-0974F644ED3F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16896" xr2:uid="{B1C3257B-F98A-4619-B0C9-FFE03A007455}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{B1C3257B-F98A-4619-B0C9-FFE03A007455}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="83">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="85">
   <si>
     <t>问题序号</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -361,6 +361,14 @@
   </si>
   <si>
     <t>0616</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>坤哥不会转向</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0617</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -887,8 +895,8 @@
   <dimension ref="A1:E170"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A24" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D44" sqref="D44"/>
+      <pane ySplit="1" topLeftCell="A40" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E49" sqref="E49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -1644,6 +1652,15 @@
       <c r="A54">
         <v>53</v>
       </c>
+      <c r="B54" s="7" t="s">
+        <v>84</v>
+      </c>
+      <c r="C54" s="1">
+        <v>45825</v>
+      </c>
+      <c r="D54" s="5" t="s">
+        <v>83</v>
+      </c>
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A55">

--- a/开发文档文件夹/各种小BUG.xlsx
+++ b/开发文档文件夹/各种小BUG.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\_Unity\_UnityProject\FlatWorld\开发文档文件夹\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\UnityProject\TerraFlat\开发文档文件夹\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BF167A7B-87F0-4022-9A14-0974F644ED3F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{66B4B4BF-03A7-4157-A0E0-FFB74DD0167B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{B1C3257B-F98A-4619-B0C9-FFE03A007455}"/>
+    <workbookView xWindow="7332" yWindow="144" windowWidth="23040" windowHeight="12204" xr2:uid="{B1C3257B-F98A-4619-B0C9-FFE03A007455}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -33,8 +33,50 @@
 </workbook>
 </file>
 
+<file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
+<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xlrd="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata">
+  <metadataTypes count="1">
+    <metadataType name="XLRICHVALUE" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1"/>
+  </metadataTypes>
+  <futureMetadata name="XLRICHVALUE" count="3">
+    <bk>
+      <extLst>
+        <ext uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
+          <xlrd:rvb i="0"/>
+        </ext>
+      </extLst>
+    </bk>
+    <bk>
+      <extLst>
+        <ext uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
+          <xlrd:rvb i="1"/>
+        </ext>
+      </extLst>
+    </bk>
+    <bk>
+      <extLst>
+        <ext uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
+          <xlrd:rvb i="2"/>
+        </ext>
+      </extLst>
+    </bk>
+  </futureMetadata>
+  <valueMetadata count="3">
+    <bk>
+      <rc t="1" v="0"/>
+    </bk>
+    <bk>
+      <rc t="1" v="1"/>
+    </bk>
+    <bk>
+      <rc t="1" v="2"/>
+    </bk>
+  </valueMetadata>
+</metadata>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="85">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="92">
   <si>
     <t>问题序号</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -369,6 +411,34 @@
   </si>
   <si>
     <t>0617</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0618</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>6月18</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>将日期数据设置为Item 其数据将从SaveData中获取</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">取消替代ItemValue的使用 使用3位一体数据替代 也就是GameValue_Float </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AI依赖场景中的NavMesh 需要确保NavMesh创建先于依赖它的对象</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">优化游戏的日期系统 </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>场景内传送</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -573,6 +643,80 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/richData/rdRichValueTypes.xml><?xml version="1.0" encoding="utf-8"?>
+<rvTypesInfo xmlns="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" mc:Ignorable="x">
+  <global>
+    <keyFlags>
+      <key name="_Self">
+        <flag name="ExcludeFromFile" value="1"/>
+        <flag name="ExcludeFromCalcComparison" value="1"/>
+      </key>
+      <key name="_DisplayString">
+        <flag name="ExcludeFromCalcComparison" value="1"/>
+      </key>
+      <key name="_Flags">
+        <flag name="ExcludeFromCalcComparison" value="1"/>
+      </key>
+      <key name="_Format">
+        <flag name="ExcludeFromCalcComparison" value="1"/>
+      </key>
+      <key name="_SubLabel">
+        <flag name="ExcludeFromCalcComparison" value="1"/>
+      </key>
+      <key name="_Attribution">
+        <flag name="ExcludeFromCalcComparison" value="1"/>
+      </key>
+      <key name="_Icon">
+        <flag name="ExcludeFromCalcComparison" value="1"/>
+      </key>
+      <key name="_Display">
+        <flag name="ExcludeFromCalcComparison" value="1"/>
+      </key>
+      <key name="_CanonicalPropertyNames">
+        <flag name="ExcludeFromCalcComparison" value="1"/>
+      </key>
+      <key name="_ClassificationId">
+        <flag name="ExcludeFromCalcComparison" value="1"/>
+      </key>
+    </keyFlags>
+  </global>
+</rvTypesInfo>
+</file>
+
+<file path=xl/richData/rdrichvalue.xml><?xml version="1.0" encoding="utf-8"?>
+<rvData xmlns="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" count="3">
+  <rv s="0">
+    <v>0</v>
+    <v>5</v>
+  </rv>
+  <rv s="0">
+    <v>1</v>
+    <v>5</v>
+  </rv>
+  <rv s="0">
+    <v>2</v>
+    <v>5</v>
+  </rv>
+</rvData>
+</file>
+
+<file path=xl/richData/rdrichvaluestructure.xml><?xml version="1.0" encoding="utf-8"?>
+<rvStructures xmlns="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" count="1">
+  <s t="_localImage">
+    <k n="_rvRel:LocalImageIdentifier" t="i"/>
+    <k n="CalcOrigin" t="i"/>
+  </s>
+</rvStructures>
+</file>
+
+<file path=xl/richData/richValueRel.xml><?xml version="1.0" encoding="utf-8"?>
+<richValueRels xmlns="http://schemas.microsoft.com/office/spreadsheetml/2022/richvaluerel" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <rel r:id="rId1"/>
+  <rel r:id="rId2"/>
+  <rel r:id="rId3"/>
+</richValueRels>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -894,9 +1038,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CF1C8C8E-C39C-417E-A20E-6E446109D209}">
   <dimension ref="A1:E170"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A40" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E49" sqref="E49"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A48" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D59" sqref="D59"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -1593,7 +1737,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A49">
         <v>48</v>
       </c>
@@ -1604,7 +1748,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A50">
         <v>49</v>
       </c>
@@ -1615,10 +1759,13 @@
         <v>77</v>
       </c>
     </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A51">
         <v>50</v>
       </c>
+      <c r="B51" s="7" t="s">
+        <v>85</v>
+      </c>
       <c r="C51" s="1">
         <v>45819</v>
       </c>
@@ -1626,7 +1773,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A52">
         <v>51</v>
       </c>
@@ -1637,7 +1784,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A53">
         <v>52</v>
       </c>
@@ -1648,7 +1795,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A54">
         <v>53</v>
       </c>
@@ -1662,52 +1809,91 @@
         <v>83</v>
       </c>
     </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A55">
         <v>54</v>
       </c>
-    </row>
-    <row r="56" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C55" t="s">
+        <v>86</v>
+      </c>
+      <c r="D55" s="5" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="56" spans="1:5" ht="27.6" x14ac:dyDescent="0.25">
       <c r="A56">
         <v>55</v>
       </c>
-    </row>
-    <row r="57" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C56" t="s">
+        <v>86</v>
+      </c>
+      <c r="D56" s="5" t="s">
+        <v>88</v>
+      </c>
+      <c r="E56" s="5" t="e" vm="1">
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="57" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A57">
         <v>56</v>
       </c>
-    </row>
-    <row r="58" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C57" t="s">
+        <v>86</v>
+      </c>
+      <c r="D57" s="5" t="s">
+        <v>89</v>
+      </c>
+      <c r="E57" s="5" t="e" vm="2">
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="58" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A58">
         <v>57</v>
       </c>
-    </row>
-    <row r="59" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C58" t="s">
+        <v>86</v>
+      </c>
+      <c r="D58" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="E58" s="5" t="e" vm="3">
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="59" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A59">
         <v>58</v>
       </c>
-    </row>
-    <row r="60" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C59" t="s">
+        <v>86</v>
+      </c>
+      <c r="D59" s="5" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="60" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A60">
         <v>59</v>
       </c>
     </row>
-    <row r="61" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A61">
         <v>60</v>
       </c>
     </row>
-    <row r="62" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A62">
         <v>61</v>
       </c>
     </row>
-    <row r="63" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A63">
         <v>62</v>
       </c>
     </row>
-    <row r="64" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A64">
         <v>63</v>
       </c>

--- a/开发文档文件夹/各种小BUG.xlsx
+++ b/开发文档文件夹/各种小BUG.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\UnityProject\TerraFlat\开发文档文件夹\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{66B4B4BF-03A7-4157-A0E0-FFB74DD0167B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{18204B9F-F3A2-41AD-B806-0BBF9E64450D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="7332" yWindow="144" windowWidth="23040" windowHeight="12204" xr2:uid="{B1C3257B-F98A-4619-B0C9-FFE03A007455}"/>
   </bookViews>
@@ -76,7 +76,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="93">
   <si>
     <t>问题序号</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -439,6 +439,10 @@
   </si>
   <si>
     <t>场景内传送</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>通过Address加载2进制地图</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1040,7 +1044,7 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A48" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D59" sqref="D59"/>
+      <selection pane="bottomLeft" activeCell="D60" sqref="D60"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -1877,6 +1881,12 @@
       <c r="A60">
         <v>59</v>
       </c>
+      <c r="C60" t="s">
+        <v>86</v>
+      </c>
+      <c r="D60" s="5" t="s">
+        <v>92</v>
+      </c>
     </row>
     <row r="61" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A61">

--- a/开发文档文件夹/各种小BUG.xlsx
+++ b/开发文档文件夹/各种小BUG.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\UnityProject\TerraFlat\开发文档文件夹\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{18204B9F-F3A2-41AD-B806-0BBF9E64450D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D4698942-48B5-4C38-9789-0643F1AD3F5C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="7332" yWindow="144" windowWidth="23040" windowHeight="12204" xr2:uid="{B1C3257B-F98A-4619-B0C9-FFE03A007455}"/>
   </bookViews>
@@ -76,7 +76,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="93">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="94">
   <si>
     <t>问题序号</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -438,11 +438,15 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>场景内传送</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>通过Address加载2进制地图</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>切换场景需要记录UI的位置</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>场景内传送 导致玩家动不了</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -450,7 +454,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -466,73 +470,16 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <family val="2"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="等线"/>
-      <family val="2"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="等线"/>
-      <family val="2"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C5700"/>
-      <name val="等线"/>
-      <family val="2"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="10"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <family val="2"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
-  <fills count="5">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="2">
+  <borders count="1">
     <border>
       <left/>
       <right/>
@@ -540,101 +487,19 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="thick">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
-  <cellStyleXfs count="5">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="58" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="2" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="3" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" xfId="4">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" xfId="4" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="4" borderId="0" xfId="4" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="58" fontId="5" fillId="4" borderId="0" xfId="4" applyNumberFormat="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="3">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="3" borderId="0" xfId="3" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="58" fontId="4" fillId="3" borderId="0" xfId="3" applyNumberFormat="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="3" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="2">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="2" borderId="0" xfId="2" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="3" fillId="2" borderId="0" xfId="2" applyNumberFormat="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="2" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="58" fontId="3" fillId="2" borderId="0" xfId="2" applyNumberFormat="1">
-      <alignment vertical="center"/>
-    </xf>
   </cellXfs>
-  <cellStyles count="5">
-    <cellStyle name="标题 2" xfId="1" builtinId="17"/>
-    <cellStyle name="差" xfId="3" builtinId="27"/>
+  <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="好" xfId="2" builtinId="26"/>
-    <cellStyle name="适中" xfId="4" builtinId="28"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1043,50 +908,50 @@
   <dimension ref="A1:E170"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A48" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D60" sqref="D60"/>
+      <pane ySplit="1" topLeftCell="A52" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D62" sqref="D62"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="6.33203125" style="7" customWidth="1"/>
+    <col min="2" max="2" width="6.33203125" customWidth="1"/>
     <col min="3" max="3" width="10.6640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="63.6640625" style="5" customWidth="1"/>
-    <col min="5" max="5" width="75.109375" style="5" customWidth="1"/>
+    <col min="4" max="4" width="63.6640625" customWidth="1"/>
+    <col min="5" max="5" width="75.109375" customWidth="1"/>
     <col min="6" max="6" width="28.77734375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="19.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" ht="19.8" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="6" t="s">
+      <c r="B1" t="s">
         <v>5</v>
       </c>
-      <c r="C1" s="4" t="s">
+      <c r="C1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="D1" t="s">
         <v>1</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="E1" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="14.4" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
-      <c r="B2" s="7">
+      <c r="B2">
         <v>20</v>
       </c>
-      <c r="C2" s="1">
+      <c r="C2">
         <v>45796</v>
       </c>
-      <c r="D2" s="5" t="s">
+      <c r="D2" t="s">
         <v>3</v>
       </c>
-      <c r="E2" s="5" t="s">
+      <c r="E2" t="s">
         <v>4</v>
       </c>
     </row>
@@ -1094,16 +959,16 @@
       <c r="A3">
         <v>2</v>
       </c>
-      <c r="B3" s="7">
+      <c r="B3">
         <v>28</v>
       </c>
-      <c r="C3" s="1">
+      <c r="C3">
         <v>45796</v>
       </c>
-      <c r="D3" s="5" t="s">
+      <c r="D3" t="s">
         <v>6</v>
       </c>
-      <c r="E3" s="5" t="s">
+      <c r="E3" t="s">
         <v>17</v>
       </c>
     </row>
@@ -1111,16 +976,16 @@
       <c r="A4">
         <v>3</v>
       </c>
-      <c r="B4" s="7">
+      <c r="B4">
         <v>28</v>
       </c>
-      <c r="C4" s="1">
+      <c r="C4">
         <v>45796</v>
       </c>
-      <c r="D4" s="5" t="s">
+      <c r="D4" t="s">
         <v>7</v>
       </c>
-      <c r="E4" s="5" t="s">
+      <c r="E4" t="s">
         <v>15</v>
       </c>
     </row>
@@ -1128,33 +993,33 @@
       <c r="A5">
         <v>4</v>
       </c>
-      <c r="B5" s="7" t="s">
+      <c r="B5" t="s">
         <v>57</v>
       </c>
-      <c r="C5" s="1">
+      <c r="C5">
         <v>45796</v>
       </c>
-      <c r="D5" s="5" t="s">
+      <c r="D5" t="s">
         <v>8</v>
       </c>
-      <c r="E5" s="5" t="s">
+      <c r="E5" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="6" spans="1:5" ht="27.6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>5</v>
       </c>
-      <c r="B6" s="7">
+      <c r="B6">
         <v>20</v>
       </c>
-      <c r="C6" s="1">
+      <c r="C6">
         <v>45796</v>
       </c>
-      <c r="D6" s="5" t="s">
+      <c r="D6" t="s">
         <v>9</v>
       </c>
-      <c r="E6" s="5" t="s">
+      <c r="E6" t="s">
         <v>14</v>
       </c>
     </row>
@@ -1162,16 +1027,16 @@
       <c r="A7">
         <v>6</v>
       </c>
-      <c r="B7" s="7">
+      <c r="B7">
         <v>22</v>
       </c>
-      <c r="C7" s="1">
+      <c r="C7">
         <v>45796</v>
       </c>
-      <c r="D7" s="5" t="s">
+      <c r="D7" t="s">
         <v>10</v>
       </c>
-      <c r="E7" s="5" t="s">
+      <c r="E7" t="s">
         <v>13</v>
       </c>
     </row>
@@ -1179,16 +1044,16 @@
       <c r="A8">
         <v>7</v>
       </c>
-      <c r="B8" s="7">
+      <c r="B8">
         <v>22</v>
       </c>
-      <c r="C8" s="1">
+      <c r="C8">
         <v>45796</v>
       </c>
-      <c r="D8" s="5" t="s">
+      <c r="D8" t="s">
         <v>12</v>
       </c>
-      <c r="E8" s="5" t="s">
+      <c r="E8" t="s">
         <v>11</v>
       </c>
     </row>
@@ -1196,16 +1061,16 @@
       <c r="A9">
         <v>8</v>
       </c>
-      <c r="B9" s="7" t="s">
+      <c r="B9" t="s">
         <v>62</v>
       </c>
-      <c r="C9" s="1">
+      <c r="C9">
         <v>45796</v>
       </c>
-      <c r="D9" s="5" t="s">
+      <c r="D9" t="s">
         <v>18</v>
       </c>
-      <c r="E9" s="5" t="s">
+      <c r="E9" t="s">
         <v>31</v>
       </c>
     </row>
@@ -1213,16 +1078,16 @@
       <c r="A10">
         <v>9</v>
       </c>
-      <c r="B10" s="7" t="s">
+      <c r="B10" t="s">
         <v>62</v>
       </c>
-      <c r="C10" s="1">
+      <c r="C10">
         <v>45796</v>
       </c>
-      <c r="D10" s="5" t="s">
+      <c r="D10" t="s">
         <v>19</v>
       </c>
-      <c r="E10" s="5" t="s">
+      <c r="E10" t="s">
         <v>22</v>
       </c>
     </row>
@@ -1230,16 +1095,16 @@
       <c r="A11">
         <v>10</v>
       </c>
-      <c r="B11" s="7" t="s">
+      <c r="B11" t="s">
         <v>62</v>
       </c>
-      <c r="C11" s="1">
+      <c r="C11">
         <v>45796</v>
       </c>
-      <c r="D11" s="5" t="s">
+      <c r="D11" t="s">
         <v>20</v>
       </c>
-      <c r="E11" s="5" t="s">
+      <c r="E11" t="s">
         <v>21</v>
       </c>
     </row>
@@ -1247,121 +1112,114 @@
       <c r="A12">
         <v>11</v>
       </c>
-      <c r="B12" s="7" t="s">
+      <c r="B12" t="s">
         <v>62</v>
       </c>
-      <c r="C12" s="1">
+      <c r="C12">
         <v>45796</v>
       </c>
-      <c r="D12" s="5" t="s">
+      <c r="D12" t="s">
         <v>23</v>
       </c>
-      <c r="E12" s="5" t="s">
+      <c r="E12" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="13" spans="1:5" s="15" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="15">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A13">
         <v>12</v>
       </c>
-      <c r="B13" s="16" t="s">
+      <c r="B13" t="s">
         <v>61</v>
       </c>
-      <c r="C13" s="19">
+      <c r="C13">
         <v>45796</v>
       </c>
-      <c r="D13" s="18" t="s">
+      <c r="D13" t="s">
         <v>24</v>
       </c>
-      <c r="E13" s="18"/>
-    </row>
-    <row r="14" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="4">
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A14">
         <v>13</v>
       </c>
-      <c r="B14" s="9"/>
-      <c r="C14" s="10">
+      <c r="C14">
         <v>45797</v>
       </c>
-      <c r="D14" s="8" t="s">
+      <c r="D14" t="s">
         <v>25</v>
       </c>
-      <c r="E14" s="8" t="s">
+      <c r="E14" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="15" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="4">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A15">
         <v>14</v>
       </c>
-      <c r="B15" s="9"/>
-      <c r="C15" s="10">
+      <c r="C15">
         <v>45799</v>
       </c>
-      <c r="D15" s="8" t="s">
+      <c r="D15" t="s">
         <v>27</v>
       </c>
-      <c r="E15" s="8"/>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>15</v>
       </c>
-      <c r="B16" s="7">
+      <c r="B16">
         <v>28</v>
       </c>
-      <c r="C16" s="1">
+      <c r="C16">
         <v>45799</v>
       </c>
-      <c r="D16" s="5" t="s">
+      <c r="D16" t="s">
         <v>28</v>
       </c>
-      <c r="E16" s="5" t="s">
+      <c r="E16" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="17" spans="1:5" s="15" customFormat="1" ht="41.4" x14ac:dyDescent="0.25">
-      <c r="A17" s="15">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A17">
         <v>16</v>
       </c>
-      <c r="B17" s="16">
+      <c r="B17">
         <v>28</v>
       </c>
-      <c r="C17" s="19">
+      <c r="C17">
         <v>45799</v>
       </c>
-      <c r="D17" s="18" t="s">
+      <c r="D17" t="s">
         <v>29</v>
       </c>
-      <c r="E17" s="18"/>
-    </row>
-    <row r="18" spans="1:5" s="4" customFormat="1" ht="41.4" x14ac:dyDescent="0.25">
-      <c r="A18" s="4">
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A18">
         <v>17</v>
       </c>
-      <c r="B18" s="9"/>
-      <c r="C18" s="10">
+      <c r="C18">
         <v>45803</v>
       </c>
-      <c r="D18" s="8" t="s">
+      <c r="D18" t="s">
         <v>34</v>
       </c>
-      <c r="E18" s="8" t="s">
+      <c r="E18" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="19" spans="1:5" s="4" customFormat="1" ht="27.6" x14ac:dyDescent="0.25">
-      <c r="A19" s="4">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A19">
         <v>18</v>
       </c>
-      <c r="B19" s="9"/>
-      <c r="C19" s="10">
+      <c r="C19">
         <v>45803</v>
       </c>
-      <c r="D19" s="8" t="s">
+      <c r="D19" t="s">
         <v>35</v>
       </c>
-      <c r="E19" s="8" t="s">
+      <c r="E19" t="s">
         <v>36</v>
       </c>
     </row>
@@ -1369,66 +1227,60 @@
       <c r="A20">
         <v>19</v>
       </c>
-      <c r="B20" s="7">
+      <c r="B20">
         <v>28</v>
       </c>
-      <c r="C20" s="1">
+      <c r="C20">
         <v>45805</v>
       </c>
-      <c r="D20" s="5" t="s">
+      <c r="D20" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="21" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="4">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A21">
         <v>20</v>
       </c>
-      <c r="B21" s="9"/>
-      <c r="C21" s="10">
+      <c r="C21">
         <v>45805</v>
       </c>
-      <c r="D21" s="8" t="s">
+      <c r="D21" t="s">
         <v>39</v>
       </c>
-      <c r="E21" s="8"/>
-    </row>
-    <row r="22" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="4">
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A22">
         <v>21</v>
       </c>
-      <c r="B22" s="9"/>
-      <c r="C22" s="10">
+      <c r="C22">
         <v>45805</v>
       </c>
-      <c r="D22" s="8" t="s">
+      <c r="D22" t="s">
         <v>40</v>
       </c>
-      <c r="E22" s="8"/>
-    </row>
-    <row r="23" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="4">
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A23">
         <v>22</v>
       </c>
-      <c r="B23" s="9"/>
-      <c r="C23" s="10">
+      <c r="C23">
         <v>45805</v>
       </c>
-      <c r="D23" s="8" t="s">
+      <c r="D23" t="s">
         <v>41</v>
       </c>
-      <c r="E23" s="8"/>
-    </row>
-    <row r="24" spans="1:5" ht="27.6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>23</v>
       </c>
-      <c r="B24" s="7" t="s">
+      <c r="B24" t="s">
         <v>62</v>
       </c>
-      <c r="C24" s="1">
+      <c r="C24">
         <v>45806</v>
       </c>
-      <c r="D24" s="5" t="s">
+      <c r="D24" t="s">
         <v>42</v>
       </c>
     </row>
@@ -1436,41 +1288,38 @@
       <c r="A25">
         <v>24</v>
       </c>
-      <c r="B25" s="7" t="s">
+      <c r="B25" t="s">
         <v>71</v>
       </c>
-      <c r="C25" s="1">
+      <c r="C25">
         <v>45806</v>
       </c>
-      <c r="D25" s="5" t="s">
+      <c r="D25" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="26" spans="1:5" s="11" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="11">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A26">
         <v>25</v>
       </c>
-      <c r="B26" s="12"/>
-      <c r="C26" s="13">
+      <c r="C26">
         <v>45806</v>
       </c>
-      <c r="D26" s="14" t="s">
+      <c r="D26" t="s">
         <v>72</v>
       </c>
-      <c r="E26" s="14"/>
-    </row>
-    <row r="27" spans="1:5" s="15" customFormat="1" ht="41.4" x14ac:dyDescent="0.25">
-      <c r="A27" s="15">
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A27">
         <v>26</v>
       </c>
-      <c r="B27" s="16"/>
-      <c r="C27" s="17">
+      <c r="C27">
         <v>45806</v>
       </c>
-      <c r="D27" s="18" t="s">
+      <c r="D27" t="s">
         <v>43</v>
       </c>
-      <c r="E27" s="18" t="s">
+      <c r="E27" t="s">
         <v>73</v>
       </c>
     </row>
@@ -1478,13 +1327,13 @@
       <c r="A28">
         <v>27</v>
       </c>
-      <c r="B28" s="7">
+      <c r="B28">
         <v>31</v>
       </c>
-      <c r="C28" s="1">
+      <c r="C28">
         <v>45806</v>
       </c>
-      <c r="D28" s="5" t="s">
+      <c r="D28" t="s">
         <v>44</v>
       </c>
     </row>
@@ -1492,13 +1341,13 @@
       <c r="A29">
         <v>28</v>
       </c>
-      <c r="B29" s="7" t="s">
+      <c r="B29" t="s">
         <v>80</v>
       </c>
-      <c r="C29" s="1">
+      <c r="C29">
         <v>45807</v>
       </c>
-      <c r="D29" s="5" t="s">
+      <c r="D29" t="s">
         <v>46</v>
       </c>
     </row>
@@ -1506,13 +1355,13 @@
       <c r="A30">
         <v>29</v>
       </c>
-      <c r="B30" s="7">
+      <c r="B30">
         <v>31</v>
       </c>
-      <c r="C30" s="1">
+      <c r="C30">
         <v>45807</v>
       </c>
-      <c r="D30" s="5" t="s">
+      <c r="D30" t="s">
         <v>47</v>
       </c>
     </row>
@@ -1520,16 +1369,16 @@
       <c r="A31">
         <v>30</v>
       </c>
-      <c r="B31" s="7" t="s">
+      <c r="B31" t="s">
         <v>80</v>
       </c>
-      <c r="C31" s="1">
+      <c r="C31">
         <v>45808</v>
       </c>
-      <c r="D31" s="5" t="s">
+      <c r="D31" t="s">
         <v>49</v>
       </c>
-      <c r="E31" s="5" t="s">
+      <c r="E31" t="s">
         <v>50</v>
       </c>
     </row>
@@ -1537,28 +1386,27 @@
       <c r="A32">
         <v>31</v>
       </c>
-      <c r="B32" s="7" t="s">
+      <c r="B32" t="s">
         <v>80</v>
       </c>
-      <c r="C32" s="1">
+      <c r="C32">
         <v>45808</v>
       </c>
-      <c r="D32" s="5" t="s">
+      <c r="D32" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="33" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="4">
+    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A33">
         <v>32</v>
       </c>
-      <c r="B33" s="9"/>
-      <c r="C33" s="10">
+      <c r="C33">
         <v>45808</v>
       </c>
-      <c r="D33" s="8" t="s">
+      <c r="D33" t="s">
         <v>51</v>
       </c>
-      <c r="E33" s="8" t="s">
+      <c r="E33" t="s">
         <v>52</v>
       </c>
     </row>
@@ -1566,7 +1414,7 @@
       <c r="A34">
         <v>33</v>
       </c>
-      <c r="B34" s="7" t="s">
+      <c r="B34" t="s">
         <v>82</v>
       </c>
       <c r="C34" t="s">
@@ -1575,19 +1423,18 @@
       <c r="D34" t="s">
         <v>54</v>
       </c>
-      <c r="E34"/>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A35">
         <v>34</v>
       </c>
-      <c r="B35" s="7" t="s">
+      <c r="B35" t="s">
         <v>80</v>
       </c>
       <c r="C35" t="s">
         <v>55</v>
       </c>
-      <c r="D35" s="5" t="s">
+      <c r="D35" t="s">
         <v>56</v>
       </c>
     </row>
@@ -1595,10 +1442,10 @@
       <c r="A36">
         <v>35</v>
       </c>
-      <c r="C36" s="1">
+      <c r="C36">
         <v>45816</v>
       </c>
-      <c r="D36" s="8" t="s">
+      <c r="D36" t="s">
         <v>58</v>
       </c>
     </row>
@@ -1606,10 +1453,10 @@
       <c r="A37">
         <v>36</v>
       </c>
-      <c r="C37" s="1">
+      <c r="C37">
         <v>45816</v>
       </c>
-      <c r="D37" s="8" t="s">
+      <c r="D37" t="s">
         <v>59</v>
       </c>
     </row>
@@ -1617,10 +1464,10 @@
       <c r="A38">
         <v>37</v>
       </c>
-      <c r="C38" s="1">
+      <c r="C38">
         <v>45816</v>
       </c>
-      <c r="D38" s="8" t="s">
+      <c r="D38" t="s">
         <v>60</v>
       </c>
     </row>
@@ -1628,10 +1475,10 @@
       <c r="A39">
         <v>38</v>
       </c>
-      <c r="C39" s="1">
+      <c r="C39">
         <v>45816</v>
       </c>
-      <c r="D39" s="8" t="s">
+      <c r="D39" t="s">
         <v>63</v>
       </c>
     </row>
@@ -1639,61 +1486,57 @@
       <c r="A40">
         <v>39</v>
       </c>
-      <c r="C40" s="1">
+      <c r="C40">
         <v>45816</v>
       </c>
-      <c r="D40" s="8" t="s">
+      <c r="D40" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="41" spans="1:5" ht="27.6" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A41">
         <v>40</v>
       </c>
-      <c r="B41" s="7" t="s">
+      <c r="B41" t="s">
         <v>82</v>
       </c>
-      <c r="C41" s="1">
+      <c r="C41">
         <v>45816</v>
       </c>
-      <c r="D41" s="5" t="s">
+      <c r="D41" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="42" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A42" s="4">
+    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A42">
         <v>41</v>
       </c>
-      <c r="B42" s="9"/>
-      <c r="C42" s="10">
+      <c r="C42">
         <v>45816</v>
       </c>
-      <c r="D42" s="8" t="s">
+      <c r="D42" t="s">
         <v>65</v>
       </c>
-      <c r="E42" s="8"/>
-    </row>
-    <row r="43" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A43" s="4">
+    </row>
+    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A43">
         <v>42</v>
       </c>
-      <c r="B43" s="9"/>
-      <c r="C43" s="10">
+      <c r="C43">
         <v>45816</v>
       </c>
-      <c r="D43" s="8" t="s">
+      <c r="D43" t="s">
         <v>67</v>
       </c>
-      <c r="E43" s="8"/>
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A44">
         <v>43</v>
       </c>
-      <c r="C44" s="1">
+      <c r="C44">
         <v>45816</v>
       </c>
-      <c r="D44" s="5" t="s">
+      <c r="D44" t="s">
         <v>68</v>
       </c>
     </row>
@@ -1701,10 +1544,10 @@
       <c r="A45">
         <v>44</v>
       </c>
-      <c r="C45" s="1">
+      <c r="C45">
         <v>45816</v>
       </c>
-      <c r="D45" s="5" t="s">
+      <c r="D45" t="s">
         <v>69</v>
       </c>
     </row>
@@ -1712,10 +1555,10 @@
       <c r="A46">
         <v>45</v>
       </c>
-      <c r="C46" s="1">
+      <c r="C46">
         <v>45817</v>
       </c>
-      <c r="D46" s="5" t="s">
+      <c r="D46" t="s">
         <v>70</v>
       </c>
     </row>
@@ -1723,10 +1566,10 @@
       <c r="A47">
         <v>46</v>
       </c>
-      <c r="C47" s="1">
+      <c r="C47">
         <v>45817</v>
       </c>
-      <c r="D47" s="5" t="s">
+      <c r="D47" t="s">
         <v>74</v>
       </c>
     </row>
@@ -1734,10 +1577,10 @@
       <c r="A48">
         <v>47</v>
       </c>
-      <c r="C48" s="1">
+      <c r="C48">
         <v>45817</v>
       </c>
-      <c r="D48" s="5" t="s">
+      <c r="D48" t="s">
         <v>75</v>
       </c>
     </row>
@@ -1745,10 +1588,10 @@
       <c r="A49">
         <v>48</v>
       </c>
-      <c r="C49" s="1">
+      <c r="C49">
         <v>45819</v>
       </c>
-      <c r="D49" s="5" t="s">
+      <c r="D49" t="s">
         <v>76</v>
       </c>
     </row>
@@ -1756,10 +1599,10 @@
       <c r="A50">
         <v>49</v>
       </c>
-      <c r="C50" s="1">
+      <c r="C50">
         <v>45819</v>
       </c>
-      <c r="D50" s="5" t="s">
+      <c r="D50" t="s">
         <v>77</v>
       </c>
     </row>
@@ -1767,13 +1610,13 @@
       <c r="A51">
         <v>50</v>
       </c>
-      <c r="B51" s="7" t="s">
+      <c r="B51" t="s">
         <v>85</v>
       </c>
-      <c r="C51" s="1">
+      <c r="C51">
         <v>45819</v>
       </c>
-      <c r="D51" s="5" t="s">
+      <c r="D51" t="s">
         <v>78</v>
       </c>
     </row>
@@ -1781,10 +1624,10 @@
       <c r="A52">
         <v>51</v>
       </c>
-      <c r="C52" s="1">
+      <c r="C52">
         <v>45823</v>
       </c>
-      <c r="D52" s="5" t="s">
+      <c r="D52" t="s">
         <v>79</v>
       </c>
     </row>
@@ -1792,10 +1635,10 @@
       <c r="A53">
         <v>52</v>
       </c>
-      <c r="C53" s="1">
+      <c r="C53">
         <v>45823</v>
       </c>
-      <c r="D53" s="5" t="s">
+      <c r="D53" t="s">
         <v>81</v>
       </c>
     </row>
@@ -1803,13 +1646,13 @@
       <c r="A54">
         <v>53</v>
       </c>
-      <c r="B54" s="7" t="s">
+      <c r="B54" t="s">
         <v>84</v>
       </c>
-      <c r="C54" s="1">
+      <c r="C54">
         <v>45825</v>
       </c>
-      <c r="D54" s="5" t="s">
+      <c r="D54" t="s">
         <v>83</v>
       </c>
     </row>
@@ -1820,21 +1663,21 @@
       <c r="C55" t="s">
         <v>86</v>
       </c>
-      <c r="D55" s="5" t="s">
+      <c r="D55" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="56" spans="1:5" ht="27.6" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A56">
         <v>55</v>
       </c>
       <c r="C56" t="s">
         <v>86</v>
       </c>
-      <c r="D56" s="5" t="s">
+      <c r="D56" t="s">
         <v>88</v>
       </c>
-      <c r="E56" s="5" t="e" vm="1">
+      <c r="E56" t="e" vm="1">
         <v>#VALUE!</v>
       </c>
     </row>
@@ -1845,10 +1688,10 @@
       <c r="C57" t="s">
         <v>86</v>
       </c>
-      <c r="D57" s="5" t="s">
+      <c r="D57" t="s">
         <v>89</v>
       </c>
-      <c r="E57" s="5" t="e" vm="2">
+      <c r="E57" t="e" vm="2">
         <v>#VALUE!</v>
       </c>
     </row>
@@ -1859,10 +1702,10 @@
       <c r="C58" t="s">
         <v>86</v>
       </c>
-      <c r="D58" s="5" t="s">
+      <c r="D58" t="s">
         <v>90</v>
       </c>
-      <c r="E58" s="5" t="e" vm="3">
+      <c r="E58" t="e" vm="3">
         <v>#VALUE!</v>
       </c>
     </row>
@@ -1873,8 +1716,8 @@
       <c r="C59" t="s">
         <v>86</v>
       </c>
-      <c r="D59" s="5" t="s">
-        <v>91</v>
+      <c r="D59" t="s">
+        <v>93</v>
       </c>
     </row>
     <row r="60" spans="1:5" x14ac:dyDescent="0.25">
@@ -1884,8 +1727,8 @@
       <c r="C60" t="s">
         <v>86</v>
       </c>
-      <c r="D60" s="5" t="s">
-        <v>92</v>
+      <c r="D60" t="s">
+        <v>91</v>
       </c>
     </row>
     <row r="61" spans="1:5" x14ac:dyDescent="0.25">
@@ -1906,6 +1749,12 @@
     <row r="64" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A64">
         <v>63</v>
+      </c>
+      <c r="C64" t="s">
+        <v>86</v>
+      </c>
+      <c r="D64" t="s">
+        <v>92</v>
       </c>
     </row>
     <row r="65" spans="1:1" x14ac:dyDescent="0.25">

--- a/开发文档文件夹/各种小BUG.xlsx
+++ b/开发文档文件夹/各种小BUG.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\UnityProject\TerraFlat\开发文档文件夹\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D4698942-48B5-4C38-9789-0643F1AD3F5C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{00C75670-C7CE-42BE-83AD-36EC1B132EB5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="7332" yWindow="144" windowWidth="23040" windowHeight="12204" xr2:uid="{B1C3257B-F98A-4619-B0C9-FFE03A007455}"/>
   </bookViews>
@@ -76,7 +76,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="94">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="113" uniqueCount="99">
   <si>
     <t>问题序号</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -447,6 +447,25 @@
   </si>
   <si>
     <t>场景内传送 导致玩家动不了</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>6月22</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>切换场景后UI无法秦楚</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>事件没有清除</t>
+  </si>
+  <si>
+    <t>事件没有清除</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Bug原因</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -905,11 +924,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CF1C8C8E-C39C-417E-A20E-6E446109D209}">
-  <dimension ref="A1:E170"/>
+  <dimension ref="A1:F170"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A52" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D62" sqref="D62"/>
+      <selection pane="bottomLeft" activeCell="E62" sqref="E62"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -921,7 +940,7 @@
     <col min="6" max="6" width="28.77734375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="19.8" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" ht="19.8" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -937,8 +956,11 @@
       <c r="E1" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F1" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
@@ -955,7 +977,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2</v>
       </c>
@@ -972,7 +994,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>3</v>
       </c>
@@ -989,7 +1011,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>4</v>
       </c>
@@ -1006,7 +1028,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>5</v>
       </c>
@@ -1023,7 +1045,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>6</v>
       </c>
@@ -1040,7 +1062,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>7</v>
       </c>
@@ -1057,7 +1079,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>8</v>
       </c>
@@ -1074,7 +1096,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>9</v>
       </c>
@@ -1091,7 +1113,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>10</v>
       </c>
@@ -1108,7 +1130,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>11</v>
       </c>
@@ -1125,7 +1147,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>12</v>
       </c>
@@ -1139,7 +1161,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>13</v>
       </c>
@@ -1153,7 +1175,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>14</v>
       </c>
@@ -1164,7 +1186,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>15</v>
       </c>
@@ -1751,88 +1773,103 @@
         <v>63</v>
       </c>
       <c r="C64" t="s">
-        <v>86</v>
+        <v>94</v>
       </c>
       <c r="D64" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="65" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A65">
         <v>64</v>
       </c>
-    </row>
-    <row r="66" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B65">
+        <v>622</v>
+      </c>
+      <c r="C65" t="s">
+        <v>94</v>
+      </c>
+      <c r="D65" t="s">
+        <v>95</v>
+      </c>
+      <c r="E65" t="s">
+        <v>97</v>
+      </c>
+      <c r="F65" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="66" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A66">
         <v>65</v>
       </c>
     </row>
-    <row r="67" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A67">
         <v>66</v>
       </c>
     </row>
-    <row r="68" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A68">
         <v>67</v>
       </c>
     </row>
-    <row r="69" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A69">
         <v>68</v>
       </c>
     </row>
-    <row r="70" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A70">
         <v>69</v>
       </c>
     </row>
-    <row r="71" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A71">
         <v>70</v>
       </c>
     </row>
-    <row r="72" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A72">
         <v>71</v>
       </c>
     </row>
-    <row r="73" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A73">
         <v>72</v>
       </c>
     </row>
-    <row r="74" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A74">
         <v>73</v>
       </c>
     </row>
-    <row r="75" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A75">
         <v>74</v>
       </c>
     </row>
-    <row r="76" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A76">
         <v>75</v>
       </c>
     </row>
-    <row r="77" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A77">
         <v>76</v>
       </c>
     </row>
-    <row r="78" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A78">
         <v>77</v>
       </c>
     </row>
-    <row r="79" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A79">
         <v>78</v>
       </c>
     </row>
-    <row r="80" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A80">
         <v>79</v>
       </c>

--- a/开发文档文件夹/各种小BUG.xlsx
+++ b/开发文档文件夹/各种小BUG.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\UnityProject\TerraFlat\开发文档文件夹\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{00C75670-C7CE-42BE-83AD-36EC1B132EB5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7B3FC1E7-A0AA-434C-8A92-BADA6AAF8692}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="7332" yWindow="144" windowWidth="23040" windowHeight="12204" xr2:uid="{B1C3257B-F98A-4619-B0C9-FFE03A007455}"/>
   </bookViews>
@@ -76,7 +76,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="113" uniqueCount="99">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="119" uniqueCount="102">
   <si>
     <t>问题序号</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -466,6 +466,18 @@
   </si>
   <si>
     <t>Bug原因</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>***</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>实现繁殖功能前需要优化植物的密度检测</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>实现Buff系统的序列化保存</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -926,9 +938,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CF1C8C8E-C39C-417E-A20E-6E446109D209}">
   <dimension ref="A1:F170"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A52" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E62" sqref="E62"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A63" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D71" sqref="D71"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -1165,6 +1177,9 @@
       <c r="A14">
         <v>13</v>
       </c>
+      <c r="B14" t="s">
+        <v>99</v>
+      </c>
       <c r="C14">
         <v>45797</v>
       </c>
@@ -1179,6 +1194,9 @@
       <c r="A15">
         <v>14</v>
       </c>
+      <c r="B15">
+        <v>622</v>
+      </c>
       <c r="C15">
         <v>45799</v>
       </c>
@@ -1235,6 +1253,9 @@
       <c r="A19">
         <v>18</v>
       </c>
+      <c r="B19" t="s">
+        <v>99</v>
+      </c>
       <c r="C19">
         <v>45803</v>
       </c>
@@ -1263,6 +1284,9 @@
       <c r="A21">
         <v>20</v>
       </c>
+      <c r="B21" t="s">
+        <v>99</v>
+      </c>
       <c r="C21">
         <v>45805</v>
       </c>
@@ -1746,6 +1770,9 @@
       <c r="A60">
         <v>59</v>
       </c>
+      <c r="B60">
+        <v>619</v>
+      </c>
       <c r="C60" t="s">
         <v>86</v>
       </c>
@@ -1803,10 +1830,19 @@
       <c r="A66">
         <v>65</v>
       </c>
+      <c r="D66" t="s">
+        <v>100</v>
+      </c>
     </row>
     <row r="67" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A67">
         <v>66</v>
+      </c>
+      <c r="C67" t="s">
+        <v>94</v>
+      </c>
+      <c r="D67" t="s">
+        <v>101</v>
       </c>
     </row>
     <row r="68" spans="1:6" x14ac:dyDescent="0.25">

--- a/开发文档文件夹/各种小BUG.xlsx
+++ b/开发文档文件夹/各种小BUG.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\UnityProject\TerraFlat\开发文档文件夹\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7B3FC1E7-A0AA-434C-8A92-BADA6AAF8692}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EC9499FB-5876-4E79-83F5-185132BDC86F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="7332" yWindow="144" windowWidth="23040" windowHeight="12204" xr2:uid="{B1C3257B-F98A-4619-B0C9-FFE03A007455}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16896" xr2:uid="{B1C3257B-F98A-4619-B0C9-FFE03A007455}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -76,7 +76,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="119" uniqueCount="102">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="122" uniqueCount="103">
   <si>
     <t>问题序号</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -478,6 +478,10 @@
   </si>
   <si>
     <t>实现Buff系统的序列化保存</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0624?</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -939,8 +943,8 @@
   <dimension ref="A1:F170"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A63" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D71" sqref="D71"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B36" sqref="B36:D36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -1239,6 +1243,9 @@
       <c r="A18">
         <v>17</v>
       </c>
+      <c r="B18" t="s">
+        <v>99</v>
+      </c>
       <c r="C18">
         <v>45803</v>
       </c>
@@ -1298,6 +1305,9 @@
       <c r="A22">
         <v>21</v>
       </c>
+      <c r="B22">
+        <v>626</v>
+      </c>
       <c r="C22">
         <v>45805</v>
       </c>
@@ -1309,6 +1319,9 @@
       <c r="A23">
         <v>22</v>
       </c>
+      <c r="B23" t="s">
+        <v>99</v>
+      </c>
       <c r="C23">
         <v>45805</v>
       </c>
@@ -1358,6 +1371,9 @@
     <row r="27" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>26</v>
+      </c>
+      <c r="B27" t="s">
+        <v>102</v>
       </c>
       <c r="C27">
         <v>45806</v>

--- a/开发文档文件夹/各种小BUG.xlsx
+++ b/开发文档文件夹/各种小BUG.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\UnityProject\TerraFlat\开发文档文件夹\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EC9499FB-5876-4E79-83F5-185132BDC86F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6869E55A-DAF5-4851-B90D-2E2A89EEDFC3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16896" xr2:uid="{B1C3257B-F98A-4619-B0C9-FFE03A007455}"/>
+    <workbookView xWindow="4020" yWindow="0" windowWidth="23040" windowHeight="12204" xr2:uid="{B1C3257B-F98A-4619-B0C9-FFE03A007455}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -76,7 +76,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="122" uniqueCount="103">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="123" uniqueCount="104">
   <si>
     <t>问题序号</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -482,6 +482,10 @@
   </si>
   <si>
     <t>0624?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>实现玩家视野缩放模块化且持久化</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -943,8 +947,8 @@
   <dimension ref="A1:F170"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B36" sqref="B36:D36"/>
+      <pane ySplit="1" topLeftCell="A52" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E63" sqref="E63"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -1800,6 +1804,9 @@
       <c r="A61">
         <v>60</v>
       </c>
+      <c r="D61" t="s">
+        <v>103</v>
+      </c>
     </row>
     <row r="62" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A62">
